--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="brlocalaplicacaoxGPSbodystructu" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>ID (ALVO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local de Aplicação x Collection </t>
+  </si>
+  <si>
+    <t>Ministério da Saúde do Brasil x Organização</t>
   </si>
 </sst>
 </file>
@@ -475,18 +481,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -498,7 +504,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -510,7 +516,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -575,23 +581,23 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -601,9 +607,9 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -613,7 +619,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -680,12 +686,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
@@ -9166,13 +9166,13 @@
     <t>  6894001</t>
   </si>
   <si>
-    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/ValueSet/BRViaAdministracao-1.0) x HL7 International (http://hl7.org/fhir/ValueSet/body-site)</t>
-  </si>
-  <si>
     <t>HL7 International (http://hl7.org/fhir/ValueSet/body-site) x Ministério da Saúde do Brasil ()</t>
   </si>
   <si>
     <t>*..1</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde do Brasil () x HL7 International (http://hl7.org/fhir/ValueSet/body-site)</t>
   </si>
 </sst>
 </file>
@@ -9623,8 +9623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9657,7 +9657,7 @@
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -9780,7 +9780,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -9818,7 +9818,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -9856,7 +9856,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -9894,7 +9894,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10504,7 +10504,7 @@
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8217" uniqueCount="3036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8252" uniqueCount="3037">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -9166,16 +9166,19 @@
     <t>  6894001</t>
   </si>
   <si>
-    <t>HL7 International (http://hl7.org/fhir/ValueSet/body-site) x Ministério da Saúde do Brasil ()</t>
-  </si>
-  <si>
     <t>*..1</t>
   </si>
   <si>
-    <t>Ministério da Saúde do Brasil () x HL7 International (http://hl7.org/fhir/ValueSet/body-site)</t>
-  </si>
-  <si>
     <t>SOURCE (ALVO)</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/CodeSystem/BRLocalAplicacao) x HL7 International (http://hl7.org/fhir/ValueSet/body-site)</t>
+  </si>
+  <si>
+    <t>body-site</t>
+  </si>
+  <si>
+    <t>HL7 International (http://hl7.org/fhir/ValueSet/body-site) x Ministério da Saúde do Brasil ((http://www.saude.gov.br/fhir/r4/CodeSystem/BRLocalAplicacao)</t>
   </si>
 </sst>
 </file>
@@ -9627,7 +9630,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9693,7 +9696,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>3028</v>
@@ -9733,19 +9736,23 @@
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>3027</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>3027</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>3027</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>3027</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>3027</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>6</v>
@@ -9770,7 +9777,9 @@
       <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>1397</v>
       </c>
@@ -9790,7 +9799,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -9809,7 +9818,9 @@
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>3031</v>
       </c>
@@ -9829,7 +9840,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -9848,7 +9859,9 @@
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>939</v>
       </c>
@@ -9868,7 +9881,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -9887,7 +9900,9 @@
       <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>939</v>
       </c>
@@ -9907,7 +9922,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -9926,7 +9941,9 @@
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>71</v>
       </c>
@@ -9946,7 +9963,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -9965,7 +9982,9 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>71</v>
       </c>
@@ -9985,7 +10004,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -10004,18 +10023,30 @@
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>3032</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -10033,18 +10064,30 @@
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3027</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>3027</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -10062,7 +10105,9 @@
       <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -10091,7 +10136,9 @@
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -10120,7 +10167,9 @@
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -10149,7 +10198,9 @@
       <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -10178,7 +10229,9 @@
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -10207,7 +10260,9 @@
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -10236,7 +10291,9 @@
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -10265,7 +10322,9 @@
       <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -10294,7 +10353,9 @@
       <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -10323,7 +10384,9 @@
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -10352,7 +10415,9 @@
       <c r="E23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -10381,7 +10446,9 @@
       <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -10410,7 +10477,9 @@
       <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -10439,7 +10508,9 @@
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -10468,7 +10539,9 @@
       <c r="E27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>3035</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -10518,11 +10591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H1016" sqref="H1016"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10558,7 +10630,7 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -10590,7 +10662,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>3028</v>
@@ -10614,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10645,7 +10717,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10676,7 +10748,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10707,7 +10779,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10738,7 +10810,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10769,7 +10841,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10800,7 +10872,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10831,7 +10903,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10862,7 +10934,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10893,7 +10965,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10924,7 +10996,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10955,7 +11027,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>2045</v>
       </c>
@@ -10986,7 +11058,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11048,7 +11120,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11079,7 +11151,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11110,7 +11182,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11141,7 +11213,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11172,7 +11244,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11203,7 +11275,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11234,7 +11306,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11265,7 +11337,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11296,7 +11368,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11327,7 +11399,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11358,7 +11430,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11389,7 +11461,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11420,7 +11492,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11451,7 +11523,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11482,7 +11554,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11513,7 +11585,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11544,7 +11616,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11575,7 +11647,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11606,7 +11678,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11637,7 +11709,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11668,7 +11740,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11699,7 +11771,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11730,7 +11802,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11761,7 +11833,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11792,7 +11864,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11823,7 +11895,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11854,7 +11926,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11885,7 +11957,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11916,7 +11988,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11947,7 +12019,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>2045</v>
       </c>
@@ -11978,7 +12050,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12009,7 +12081,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12040,7 +12112,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12071,7 +12143,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12102,7 +12174,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12133,7 +12205,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12164,7 +12236,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12195,7 +12267,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12226,7 +12298,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12257,7 +12329,7 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12288,7 +12360,7 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12319,7 +12391,7 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12350,7 +12422,7 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12381,7 +12453,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12412,7 +12484,7 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12443,7 +12515,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12474,7 +12546,7 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12505,7 +12577,7 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12536,7 +12608,7 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12567,7 +12639,7 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12598,7 +12670,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12629,7 +12701,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12660,7 +12732,7 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12691,7 +12763,7 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12722,7 +12794,7 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12753,7 +12825,7 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12784,7 +12856,7 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12815,7 +12887,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12846,7 +12918,7 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12877,7 +12949,7 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12908,7 +12980,7 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12939,7 +13011,7 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>2045</v>
       </c>
@@ -12970,7 +13042,7 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13001,7 +13073,7 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13032,7 +13104,7 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13063,7 +13135,7 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13094,7 +13166,7 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13125,7 +13197,7 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13156,7 +13228,7 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13187,7 +13259,7 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13218,7 +13290,7 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13249,7 +13321,7 @@
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13280,7 +13352,7 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13311,7 +13383,7 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13342,7 +13414,7 @@
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13373,7 +13445,7 @@
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13404,7 +13476,7 @@
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13435,7 +13507,7 @@
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13466,7 +13538,7 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13497,7 +13569,7 @@
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13528,7 +13600,7 @@
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13559,7 +13631,7 @@
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13590,7 +13662,7 @@
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13621,7 +13693,7 @@
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13652,7 +13724,7 @@
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13683,7 +13755,7 @@
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13714,7 +13786,7 @@
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13745,7 +13817,7 @@
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13776,7 +13848,7 @@
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13807,7 +13879,7 @@
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13838,7 +13910,7 @@
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13869,7 +13941,7 @@
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13900,7 +13972,7 @@
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13931,7 +14003,7 @@
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13962,7 +14034,7 @@
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>2045</v>
       </c>
@@ -13993,7 +14065,7 @@
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14024,7 +14096,7 @@
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14055,7 +14127,7 @@
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14086,7 +14158,7 @@
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14117,7 +14189,7 @@
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14148,7 +14220,7 @@
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14179,7 +14251,7 @@
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14210,7 +14282,7 @@
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14241,7 +14313,7 @@
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14272,7 +14344,7 @@
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14303,7 +14375,7 @@
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14334,7 +14406,7 @@
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14365,7 +14437,7 @@
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14396,7 +14468,7 @@
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14427,7 +14499,7 @@
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14458,7 +14530,7 @@
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14489,7 +14561,7 @@
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14520,7 +14592,7 @@
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14551,7 +14623,7 @@
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
     </row>
-    <row r="131" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14582,7 +14654,7 @@
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
     </row>
-    <row r="132" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14613,7 +14685,7 @@
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
     </row>
-    <row r="133" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14644,7 +14716,7 @@
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14675,7 +14747,7 @@
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
     </row>
-    <row r="135" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14706,7 +14778,7 @@
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14737,7 +14809,7 @@
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14768,7 +14840,7 @@
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14799,7 +14871,7 @@
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14830,7 +14902,7 @@
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14861,7 +14933,7 @@
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14892,7 +14964,7 @@
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
     </row>
-    <row r="142" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14923,7 +14995,7 @@
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14954,7 +15026,7 @@
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>2045</v>
       </c>
@@ -14985,7 +15057,7 @@
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15016,7 +15088,7 @@
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
     </row>
-    <row r="146" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15047,7 +15119,7 @@
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15078,7 +15150,7 @@
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15109,7 +15181,7 @@
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15140,7 +15212,7 @@
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
     </row>
-    <row r="150" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15171,7 +15243,7 @@
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
     </row>
-    <row r="151" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15202,7 +15274,7 @@
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15233,7 +15305,7 @@
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15264,7 +15336,7 @@
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
     </row>
-    <row r="154" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15295,7 +15367,7 @@
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15326,7 +15398,7 @@
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15357,7 +15429,7 @@
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15388,7 +15460,7 @@
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15419,7 +15491,7 @@
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15450,7 +15522,7 @@
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15481,7 +15553,7 @@
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15512,7 +15584,7 @@
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15543,7 +15615,7 @@
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15574,7 +15646,7 @@
       <c r="L163" s="6"/>
       <c r="M163" s="6"/>
     </row>
-    <row r="164" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15605,7 +15677,7 @@
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15636,7 +15708,7 @@
       <c r="L165" s="6"/>
       <c r="M165" s="6"/>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15667,7 +15739,7 @@
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15698,7 +15770,7 @@
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15729,7 +15801,7 @@
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15760,7 +15832,7 @@
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
     </row>
-    <row r="170" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15791,7 +15863,7 @@
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
     </row>
-    <row r="171" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15822,7 +15894,7 @@
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15853,7 +15925,7 @@
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15884,7 +15956,7 @@
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15915,7 +15987,7 @@
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15946,7 +16018,7 @@
       <c r="L175" s="6"/>
       <c r="M175" s="6"/>
     </row>
-    <row r="176" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>2045</v>
       </c>
@@ -15977,7 +16049,7 @@
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16008,7 +16080,7 @@
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16039,7 +16111,7 @@
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16070,7 +16142,7 @@
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16101,7 +16173,7 @@
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
     </row>
-    <row r="181" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16132,7 +16204,7 @@
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16163,7 +16235,7 @@
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16194,7 +16266,7 @@
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16225,7 +16297,7 @@
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16256,7 +16328,7 @@
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16287,7 +16359,7 @@
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
     </row>
-    <row r="187" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16318,7 +16390,7 @@
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16349,7 +16421,7 @@
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16380,7 +16452,7 @@
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16411,7 +16483,7 @@
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16442,7 +16514,7 @@
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
     </row>
-    <row r="192" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16473,7 +16545,7 @@
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16504,7 +16576,7 @@
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16535,7 +16607,7 @@
       <c r="L194" s="6"/>
       <c r="M194" s="6"/>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16566,7 +16638,7 @@
       <c r="L195" s="6"/>
       <c r="M195" s="6"/>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16597,7 +16669,7 @@
       <c r="L196" s="6"/>
       <c r="M196" s="6"/>
     </row>
-    <row r="197" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16628,7 +16700,7 @@
       <c r="L197" s="6"/>
       <c r="M197" s="6"/>
     </row>
-    <row r="198" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16659,7 +16731,7 @@
       <c r="L198" s="6"/>
       <c r="M198" s="6"/>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16690,7 +16762,7 @@
       <c r="L199" s="6"/>
       <c r="M199" s="6"/>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16721,7 +16793,7 @@
       <c r="L200" s="6"/>
       <c r="M200" s="6"/>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16752,7 +16824,7 @@
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16783,7 +16855,7 @@
       <c r="L202" s="6"/>
       <c r="M202" s="6"/>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16814,7 +16886,7 @@
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16845,7 +16917,7 @@
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
     </row>
-    <row r="205" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16876,7 +16948,7 @@
       <c r="L205" s="6"/>
       <c r="M205" s="6"/>
     </row>
-    <row r="206" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16907,7 +16979,7 @@
       <c r="L206" s="6"/>
       <c r="M206" s="6"/>
     </row>
-    <row r="207" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16938,7 +17010,7 @@
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
     </row>
-    <row r="208" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>2045</v>
       </c>
@@ -16969,7 +17041,7 @@
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17000,7 +17072,7 @@
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17031,7 +17103,7 @@
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17062,7 +17134,7 @@
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
     </row>
-    <row r="212" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17093,7 +17165,7 @@
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
     </row>
-    <row r="213" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17124,7 +17196,7 @@
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
     </row>
-    <row r="214" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17155,7 +17227,7 @@
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17186,7 +17258,7 @@
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
     </row>
-    <row r="216" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17217,7 +17289,7 @@
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
     </row>
-    <row r="217" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17248,7 +17320,7 @@
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17279,7 +17351,7 @@
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17310,7 +17382,7 @@
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
     </row>
-    <row r="220" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17341,7 +17413,7 @@
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17372,7 +17444,7 @@
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
     </row>
-    <row r="222" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17403,7 +17475,7 @@
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
     </row>
-    <row r="223" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17434,7 +17506,7 @@
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17465,7 +17537,7 @@
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
     </row>
-    <row r="225" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17496,7 +17568,7 @@
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17527,7 +17599,7 @@
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17558,7 +17630,7 @@
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17589,7 +17661,7 @@
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17620,7 +17692,7 @@
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17651,7 +17723,7 @@
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
     </row>
-    <row r="231" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17682,7 +17754,7 @@
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17713,7 +17785,7 @@
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17744,7 +17816,7 @@
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17775,7 +17847,7 @@
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17806,7 +17878,7 @@
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
     </row>
-    <row r="236" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17837,7 +17909,7 @@
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
     </row>
-    <row r="237" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17868,7 +17940,7 @@
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17899,7 +17971,7 @@
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
     </row>
-    <row r="239" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17930,7 +18002,7 @@
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
     </row>
-    <row r="240" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17961,7 +18033,7 @@
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
     </row>
-    <row r="241" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>2045</v>
       </c>
@@ -17992,7 +18064,7 @@
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18023,7 +18095,7 @@
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18054,7 +18126,7 @@
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
     </row>
-    <row r="244" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18085,7 +18157,7 @@
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18116,7 +18188,7 @@
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18147,7 +18219,7 @@
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18178,7 +18250,7 @@
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18209,7 +18281,7 @@
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
     </row>
-    <row r="249" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18240,7 +18312,7 @@
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18271,7 +18343,7 @@
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18302,7 +18374,7 @@
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
     </row>
-    <row r="252" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18333,7 +18405,7 @@
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18364,7 +18436,7 @@
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
     </row>
-    <row r="254" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18395,7 +18467,7 @@
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
     </row>
-    <row r="255" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18426,7 +18498,7 @@
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18457,7 +18529,7 @@
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18488,7 +18560,7 @@
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18519,7 +18591,7 @@
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18550,7 +18622,7 @@
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
-    <row r="260" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18581,7 +18653,7 @@
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
-    <row r="261" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18612,7 +18684,7 @@
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18643,7 +18715,7 @@
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18674,7 +18746,7 @@
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
-    <row r="264" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18705,7 +18777,7 @@
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
-    <row r="265" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18736,7 +18808,7 @@
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
-    <row r="266" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18767,7 +18839,7 @@
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
-    <row r="267" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18798,7 +18870,7 @@
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18829,7 +18901,7 @@
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18860,7 +18932,7 @@
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18891,7 +18963,7 @@
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18922,7 +18994,7 @@
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18953,7 +19025,7 @@
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>2045</v>
       </c>
@@ -18984,7 +19056,7 @@
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19015,7 +19087,7 @@
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
-    <row r="275" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19046,7 +19118,7 @@
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19077,7 +19149,7 @@
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
-    <row r="277" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19108,7 +19180,7 @@
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
-    <row r="278" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19139,7 +19211,7 @@
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
-    <row r="279" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19170,7 +19242,7 @@
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
-    <row r="280" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19201,7 +19273,7 @@
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19232,7 +19304,7 @@
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
-    <row r="282" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19263,7 +19335,7 @@
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
-    <row r="283" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19294,7 +19366,7 @@
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
-    <row r="284" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19325,7 +19397,7 @@
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19356,7 +19428,7 @@
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19387,7 +19459,7 @@
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19418,7 +19490,7 @@
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19449,7 +19521,7 @@
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
-    <row r="289" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19480,7 +19552,7 @@
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
-    <row r="290" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19511,7 +19583,7 @@
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
-    <row r="291" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19542,7 +19614,7 @@
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19573,7 +19645,7 @@
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19604,7 +19676,7 @@
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19635,7 +19707,7 @@
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19666,7 +19738,7 @@
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19697,7 +19769,7 @@
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
-    <row r="297" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19728,7 +19800,7 @@
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19759,7 +19831,7 @@
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19790,7 +19862,7 @@
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
-    <row r="300" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19821,7 +19893,7 @@
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
-    <row r="301" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19852,7 +19924,7 @@
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19883,7 +19955,7 @@
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
-    <row r="303" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19914,7 +19986,7 @@
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19945,7 +20017,7 @@
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>2045</v>
       </c>
@@ -19976,7 +20048,7 @@
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20007,7 +20079,7 @@
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20038,7 +20110,7 @@
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20069,7 +20141,7 @@
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20100,7 +20172,7 @@
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20131,7 +20203,7 @@
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
-    <row r="311" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20162,7 +20234,7 @@
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
-    <row r="312" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20193,7 +20265,7 @@
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20224,7 +20296,7 @@
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
-    <row r="314" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20255,7 +20327,7 @@
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
-    <row r="315" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20286,7 +20358,7 @@
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20317,7 +20389,7 @@
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20348,7 +20420,7 @@
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20379,7 +20451,7 @@
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
-    <row r="319" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20410,7 +20482,7 @@
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20441,7 +20513,7 @@
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20472,7 +20544,7 @@
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
-    <row r="322" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20503,7 +20575,7 @@
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20534,7 +20606,7 @@
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
-    <row r="324" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20565,7 +20637,7 @@
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20596,7 +20668,7 @@
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20627,7 +20699,7 @@
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
-    <row r="327" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20658,7 +20730,7 @@
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20689,7 +20761,7 @@
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
-    <row r="329" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20720,7 +20792,7 @@
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20751,7 +20823,7 @@
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20782,7 +20854,7 @@
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20813,7 +20885,7 @@
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20844,7 +20916,7 @@
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20875,7 +20947,7 @@
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
-    <row r="335" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20906,7 +20978,7 @@
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20937,7 +21009,7 @@
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20968,7 +21040,7 @@
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>2045</v>
       </c>
@@ -20999,7 +21071,7 @@
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21030,7 +21102,7 @@
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21061,7 +21133,7 @@
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
-    <row r="341" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21092,7 +21164,7 @@
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21123,7 +21195,7 @@
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21154,7 +21226,7 @@
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
-    <row r="344" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21185,7 +21257,7 @@
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
-    <row r="345" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21216,7 +21288,7 @@
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
-    <row r="346" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21247,7 +21319,7 @@
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21278,7 +21350,7 @@
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21309,7 +21381,7 @@
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
-    <row r="349" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21340,7 +21412,7 @@
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
-    <row r="350" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21371,7 +21443,7 @@
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
-    <row r="351" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21402,7 +21474,7 @@
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
-    <row r="352" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21433,7 +21505,7 @@
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21464,7 +21536,7 @@
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21495,7 +21567,7 @@
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
-    <row r="355" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21526,7 +21598,7 @@
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21557,7 +21629,7 @@
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21588,7 +21660,7 @@
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21619,7 +21691,7 @@
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21650,7 +21722,7 @@
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
-    <row r="360" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21681,7 +21753,7 @@
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
-    <row r="361" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21712,7 +21784,7 @@
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21743,7 +21815,7 @@
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
-    <row r="363" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21774,7 +21846,7 @@
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21805,7 +21877,7 @@
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
-    <row r="365" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21836,7 +21908,7 @@
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21867,7 +21939,7 @@
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
-    <row r="367" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21898,7 +21970,7 @@
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21929,7 +22001,7 @@
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21960,7 +22032,7 @@
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
     </row>
-    <row r="370" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>2045</v>
       </c>
@@ -21991,7 +22063,7 @@
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
     </row>
-    <row r="371" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22022,7 +22094,7 @@
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
     </row>
-    <row r="372" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22053,7 +22125,7 @@
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
     </row>
-    <row r="373" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22084,7 +22156,7 @@
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22115,7 +22187,7 @@
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22146,7 +22218,7 @@
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22177,7 +22249,7 @@
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22208,7 +22280,7 @@
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
     </row>
-    <row r="378" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22239,7 +22311,7 @@
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
     </row>
-    <row r="379" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22270,7 +22342,7 @@
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
     </row>
-    <row r="380" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22301,7 +22373,7 @@
       <c r="L380" s="6"/>
       <c r="M380" s="6"/>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22332,7 +22404,7 @@
       <c r="L381" s="6"/>
       <c r="M381" s="6"/>
     </row>
-    <row r="382" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22363,7 +22435,7 @@
       <c r="L382" s="6"/>
       <c r="M382" s="6"/>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22394,7 +22466,7 @@
       <c r="L383" s="6"/>
       <c r="M383" s="6"/>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22425,7 +22497,7 @@
       <c r="L384" s="6"/>
       <c r="M384" s="6"/>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22456,7 +22528,7 @@
       <c r="L385" s="6"/>
       <c r="M385" s="6"/>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22487,7 +22559,7 @@
       <c r="L386" s="6"/>
       <c r="M386" s="6"/>
     </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22518,7 +22590,7 @@
       <c r="L387" s="6"/>
       <c r="M387" s="6"/>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22549,7 +22621,7 @@
       <c r="L388" s="6"/>
       <c r="M388" s="6"/>
     </row>
-    <row r="389" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22580,7 +22652,7 @@
       <c r="L389" s="6"/>
       <c r="M389" s="6"/>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22611,7 +22683,7 @@
       <c r="L390" s="6"/>
       <c r="M390" s="6"/>
     </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22642,7 +22714,7 @@
       <c r="L391" s="6"/>
       <c r="M391" s="6"/>
     </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22673,7 +22745,7 @@
       <c r="L392" s="6"/>
       <c r="M392" s="6"/>
     </row>
-    <row r="393" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22704,7 +22776,7 @@
       <c r="L393" s="6"/>
       <c r="M393" s="6"/>
     </row>
-    <row r="394" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22735,7 +22807,7 @@
       <c r="L394" s="6"/>
       <c r="M394" s="6"/>
     </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22766,7 +22838,7 @@
       <c r="L395" s="6"/>
       <c r="M395" s="6"/>
     </row>
-    <row r="396" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22797,7 +22869,7 @@
       <c r="L396" s="6"/>
       <c r="M396" s="6"/>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22828,7 +22900,7 @@
       <c r="L397" s="6"/>
       <c r="M397" s="6"/>
     </row>
-    <row r="398" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22859,7 +22931,7 @@
       <c r="L398" s="6"/>
       <c r="M398" s="6"/>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22890,7 +22962,7 @@
       <c r="L399" s="6"/>
       <c r="M399" s="6"/>
     </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22921,7 +22993,7 @@
       <c r="L400" s="6"/>
       <c r="M400" s="6"/>
     </row>
-    <row r="401" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22952,7 +23024,7 @@
       <c r="L401" s="6"/>
       <c r="M401" s="6"/>
     </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>2045</v>
       </c>
@@ -22983,7 +23055,7 @@
       <c r="L402" s="6"/>
       <c r="M402" s="6"/>
     </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23014,7 +23086,7 @@
       <c r="L403" s="6"/>
       <c r="M403" s="6"/>
     </row>
-    <row r="404" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23045,7 +23117,7 @@
       <c r="L404" s="6"/>
       <c r="M404" s="6"/>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23076,7 +23148,7 @@
       <c r="L405" s="6"/>
       <c r="M405" s="6"/>
     </row>
-    <row r="406" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23107,7 +23179,7 @@
       <c r="L406" s="6"/>
       <c r="M406" s="6"/>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23138,7 +23210,7 @@
       <c r="L407" s="6"/>
       <c r="M407" s="6"/>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23169,7 +23241,7 @@
       <c r="L408" s="6"/>
       <c r="M408" s="6"/>
     </row>
-    <row r="409" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23200,7 +23272,7 @@
       <c r="L409" s="6"/>
       <c r="M409" s="6"/>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23231,7 +23303,7 @@
       <c r="L410" s="6"/>
       <c r="M410" s="6"/>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23262,7 +23334,7 @@
       <c r="L411" s="6"/>
       <c r="M411" s="6"/>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23293,7 +23365,7 @@
       <c r="L412" s="6"/>
       <c r="M412" s="6"/>
     </row>
-    <row r="413" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23324,7 +23396,7 @@
       <c r="L413" s="6"/>
       <c r="M413" s="6"/>
     </row>
-    <row r="414" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23355,7 +23427,7 @@
       <c r="L414" s="6"/>
       <c r="M414" s="6"/>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23386,7 +23458,7 @@
       <c r="L415" s="6"/>
       <c r="M415" s="6"/>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23417,7 +23489,7 @@
       <c r="L416" s="6"/>
       <c r="M416" s="6"/>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23448,7 +23520,7 @@
       <c r="L417" s="6"/>
       <c r="M417" s="6"/>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23479,7 +23551,7 @@
       <c r="L418" s="6"/>
       <c r="M418" s="6"/>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23510,7 +23582,7 @@
       <c r="L419" s="6"/>
       <c r="M419" s="6"/>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23541,7 +23613,7 @@
       <c r="L420" s="6"/>
       <c r="M420" s="6"/>
     </row>
-    <row r="421" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23572,7 +23644,7 @@
       <c r="L421" s="6"/>
       <c r="M421" s="6"/>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23603,7 +23675,7 @@
       <c r="L422" s="6"/>
       <c r="M422" s="6"/>
     </row>
-    <row r="423" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23634,7 +23706,7 @@
       <c r="L423" s="6"/>
       <c r="M423" s="6"/>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23665,7 +23737,7 @@
       <c r="L424" s="6"/>
       <c r="M424" s="6"/>
     </row>
-    <row r="425" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23696,7 +23768,7 @@
       <c r="L425" s="6"/>
       <c r="M425" s="6"/>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23727,7 +23799,7 @@
       <c r="L426" s="6"/>
       <c r="M426" s="6"/>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23758,7 +23830,7 @@
       <c r="L427" s="6"/>
       <c r="M427" s="6"/>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23789,7 +23861,7 @@
       <c r="L428" s="6"/>
       <c r="M428" s="6"/>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23820,7 +23892,7 @@
       <c r="L429" s="6"/>
       <c r="M429" s="6"/>
     </row>
-    <row r="430" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23851,7 +23923,7 @@
       <c r="L430" s="6"/>
       <c r="M430" s="6"/>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23882,7 +23954,7 @@
       <c r="L431" s="6"/>
       <c r="M431" s="6"/>
     </row>
-    <row r="432" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23913,7 +23985,7 @@
       <c r="L432" s="6"/>
       <c r="M432" s="6"/>
     </row>
-    <row r="433" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23944,7 +24016,7 @@
       <c r="L433" s="6"/>
       <c r="M433" s="6"/>
     </row>
-    <row r="434" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>2045</v>
       </c>
@@ -23975,7 +24047,7 @@
       <c r="L434" s="6"/>
       <c r="M434" s="6"/>
     </row>
-    <row r="435" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24006,7 +24078,7 @@
       <c r="L435" s="6"/>
       <c r="M435" s="6"/>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24037,7 +24109,7 @@
       <c r="L436" s="6"/>
       <c r="M436" s="6"/>
     </row>
-    <row r="437" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24068,7 +24140,7 @@
       <c r="L437" s="6"/>
       <c r="M437" s="6"/>
     </row>
-    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24099,7 +24171,7 @@
       <c r="L438" s="6"/>
       <c r="M438" s="6"/>
     </row>
-    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24130,7 +24202,7 @@
       <c r="L439" s="6"/>
       <c r="M439" s="6"/>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24161,7 +24233,7 @@
       <c r="L440" s="6"/>
       <c r="M440" s="6"/>
     </row>
-    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24192,7 +24264,7 @@
       <c r="L441" s="6"/>
       <c r="M441" s="6"/>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24223,7 +24295,7 @@
       <c r="L442" s="6"/>
       <c r="M442" s="6"/>
     </row>
-    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24254,7 +24326,7 @@
       <c r="L443" s="6"/>
       <c r="M443" s="6"/>
     </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24285,7 +24357,7 @@
       <c r="L444" s="6"/>
       <c r="M444" s="6"/>
     </row>
-    <row r="445" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24316,7 +24388,7 @@
       <c r="L445" s="6"/>
       <c r="M445" s="6"/>
     </row>
-    <row r="446" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24347,7 +24419,7 @@
       <c r="L446" s="6"/>
       <c r="M446" s="6"/>
     </row>
-    <row r="447" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24378,7 +24450,7 @@
       <c r="L447" s="6"/>
       <c r="M447" s="6"/>
     </row>
-    <row r="448" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24409,7 +24481,7 @@
       <c r="L448" s="6"/>
       <c r="M448" s="6"/>
     </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24440,7 +24512,7 @@
       <c r="L449" s="6"/>
       <c r="M449" s="6"/>
     </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24471,7 +24543,7 @@
       <c r="L450" s="6"/>
       <c r="M450" s="6"/>
     </row>
-    <row r="451" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24502,7 +24574,7 @@
       <c r="L451" s="6"/>
       <c r="M451" s="6"/>
     </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24533,7 +24605,7 @@
       <c r="L452" s="6"/>
       <c r="M452" s="6"/>
     </row>
-    <row r="453" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24564,7 +24636,7 @@
       <c r="L453" s="6"/>
       <c r="M453" s="6"/>
     </row>
-    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24595,7 +24667,7 @@
       <c r="L454" s="6"/>
       <c r="M454" s="6"/>
     </row>
-    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24626,7 +24698,7 @@
       <c r="L455" s="6"/>
       <c r="M455" s="6"/>
     </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24657,7 +24729,7 @@
       <c r="L456" s="6"/>
       <c r="M456" s="6"/>
     </row>
-    <row r="457" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24688,7 +24760,7 @@
       <c r="L457" s="6"/>
       <c r="M457" s="6"/>
     </row>
-    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24719,7 +24791,7 @@
       <c r="L458" s="6"/>
       <c r="M458" s="6"/>
     </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24750,7 +24822,7 @@
       <c r="L459" s="6"/>
       <c r="M459" s="6"/>
     </row>
-    <row r="460" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24781,7 +24853,7 @@
       <c r="L460" s="6"/>
       <c r="M460" s="6"/>
     </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24812,7 +24884,7 @@
       <c r="L461" s="6"/>
       <c r="M461" s="6"/>
     </row>
-    <row r="462" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24843,7 +24915,7 @@
       <c r="L462" s="6"/>
       <c r="M462" s="6"/>
     </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24874,7 +24946,7 @@
       <c r="L463" s="6"/>
       <c r="M463" s="6"/>
     </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24905,7 +24977,7 @@
       <c r="L464" s="6"/>
       <c r="M464" s="6"/>
     </row>
-    <row r="465" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24936,7 +25008,7 @@
       <c r="L465" s="6"/>
       <c r="M465" s="6"/>
     </row>
-    <row r="466" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24967,7 +25039,7 @@
       <c r="L466" s="6"/>
       <c r="M466" s="6"/>
     </row>
-    <row r="467" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>2045</v>
       </c>
@@ -24998,7 +25070,7 @@
       <c r="L467" s="6"/>
       <c r="M467" s="6"/>
     </row>
-    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25029,7 +25101,7 @@
       <c r="L468" s="6"/>
       <c r="M468" s="6"/>
     </row>
-    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25060,7 +25132,7 @@
       <c r="L469" s="6"/>
       <c r="M469" s="6"/>
     </row>
-    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25091,7 +25163,7 @@
       <c r="L470" s="6"/>
       <c r="M470" s="6"/>
     </row>
-    <row r="471" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A471" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25122,7 +25194,7 @@
       <c r="L471" s="6"/>
       <c r="M471" s="6"/>
     </row>
-    <row r="472" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25153,7 +25225,7 @@
       <c r="L472" s="6"/>
       <c r="M472" s="6"/>
     </row>
-    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25184,7 +25256,7 @@
       <c r="L473" s="6"/>
       <c r="M473" s="6"/>
     </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25215,7 +25287,7 @@
       <c r="L474" s="6"/>
       <c r="M474" s="6"/>
     </row>
-    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25246,7 +25318,7 @@
       <c r="L475" s="6"/>
       <c r="M475" s="6"/>
     </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25277,7 +25349,7 @@
       <c r="L476" s="6"/>
       <c r="M476" s="6"/>
     </row>
-    <row r="477" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25308,7 +25380,7 @@
       <c r="L477" s="6"/>
       <c r="M477" s="6"/>
     </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25339,7 +25411,7 @@
       <c r="L478" s="6"/>
       <c r="M478" s="6"/>
     </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25370,7 +25442,7 @@
       <c r="L479" s="6"/>
       <c r="M479" s="6"/>
     </row>
-    <row r="480" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25401,7 +25473,7 @@
       <c r="L480" s="6"/>
       <c r="M480" s="6"/>
     </row>
-    <row r="481" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25432,7 +25504,7 @@
       <c r="L481" s="6"/>
       <c r="M481" s="6"/>
     </row>
-    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25463,7 +25535,7 @@
       <c r="L482" s="6"/>
       <c r="M482" s="6"/>
     </row>
-    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25494,7 +25566,7 @@
       <c r="L483" s="6"/>
       <c r="M483" s="6"/>
     </row>
-    <row r="484" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25525,7 +25597,7 @@
       <c r="L484" s="6"/>
       <c r="M484" s="6"/>
     </row>
-    <row r="485" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25556,7 +25628,7 @@
       <c r="L485" s="6"/>
       <c r="M485" s="6"/>
     </row>
-    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25587,7 +25659,7 @@
       <c r="L486" s="6"/>
       <c r="M486" s="6"/>
     </row>
-    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25618,7 +25690,7 @@
       <c r="L487" s="6"/>
       <c r="M487" s="6"/>
     </row>
-    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25649,7 +25721,7 @@
       <c r="L488" s="6"/>
       <c r="M488" s="6"/>
     </row>
-    <row r="489" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25680,7 +25752,7 @@
       <c r="L489" s="6"/>
       <c r="M489" s="6"/>
     </row>
-    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25711,7 +25783,7 @@
       <c r="L490" s="6"/>
       <c r="M490" s="6"/>
     </row>
-    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25742,7 +25814,7 @@
       <c r="L491" s="6"/>
       <c r="M491" s="6"/>
     </row>
-    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25773,7 +25845,7 @@
       <c r="L492" s="6"/>
       <c r="M492" s="6"/>
     </row>
-    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25804,7 +25876,7 @@
       <c r="L493" s="6"/>
       <c r="M493" s="6"/>
     </row>
-    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25835,7 +25907,7 @@
       <c r="L494" s="6"/>
       <c r="M494" s="6"/>
     </row>
-    <row r="495" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25866,7 +25938,7 @@
       <c r="L495" s="6"/>
       <c r="M495" s="6"/>
     </row>
-    <row r="496" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A496" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25897,7 +25969,7 @@
       <c r="L496" s="6"/>
       <c r="M496" s="6"/>
     </row>
-    <row r="497" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A497" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25928,7 +26000,7 @@
       <c r="L497" s="6"/>
       <c r="M497" s="6"/>
     </row>
-    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25959,7 +26031,7 @@
       <c r="L498" s="6"/>
       <c r="M498" s="6"/>
     </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
         <v>2045</v>
       </c>
@@ -25990,7 +26062,7 @@
       <c r="L499" s="6"/>
       <c r="M499" s="6"/>
     </row>
-    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26021,7 +26093,7 @@
       <c r="L500" s="6"/>
       <c r="M500" s="6"/>
     </row>
-    <row r="501" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A501" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26052,7 +26124,7 @@
       <c r="L501" s="6"/>
       <c r="M501" s="6"/>
     </row>
-    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26083,7 +26155,7 @@
       <c r="L502" s="6"/>
       <c r="M502" s="6"/>
     </row>
-    <row r="503" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A503" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26114,7 +26186,7 @@
       <c r="L503" s="6"/>
       <c r="M503" s="6"/>
     </row>
-    <row r="504" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A504" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26145,7 +26217,7 @@
       <c r="L504" s="6"/>
       <c r="M504" s="6"/>
     </row>
-    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26176,7 +26248,7 @@
       <c r="L505" s="6"/>
       <c r="M505" s="6"/>
     </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26207,7 +26279,7 @@
       <c r="L506" s="6"/>
       <c r="M506" s="6"/>
     </row>
-    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26238,7 +26310,7 @@
       <c r="L507" s="6"/>
       <c r="M507" s="6"/>
     </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26269,7 +26341,7 @@
       <c r="L508" s="6"/>
       <c r="M508" s="6"/>
     </row>
-    <row r="509" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26300,7 +26372,7 @@
       <c r="L509" s="6"/>
       <c r="M509" s="6"/>
     </row>
-    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26331,7 +26403,7 @@
       <c r="L510" s="6"/>
       <c r="M510" s="6"/>
     </row>
-    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26362,7 +26434,7 @@
       <c r="L511" s="6"/>
       <c r="M511" s="6"/>
     </row>
-    <row r="512" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26393,7 +26465,7 @@
       <c r="L512" s="6"/>
       <c r="M512" s="6"/>
     </row>
-    <row r="513" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26424,7 +26496,7 @@
       <c r="L513" s="6"/>
       <c r="M513" s="6"/>
     </row>
-    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26455,7 +26527,7 @@
       <c r="L514" s="6"/>
       <c r="M514" s="6"/>
     </row>
-    <row r="515" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A515" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26486,7 +26558,7 @@
       <c r="L515" s="6"/>
       <c r="M515" s="6"/>
     </row>
-    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26517,7 +26589,7 @@
       <c r="L516" s="6"/>
       <c r="M516" s="6"/>
     </row>
-    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26548,7 +26620,7 @@
       <c r="L517" s="6"/>
       <c r="M517" s="6"/>
     </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26579,7 +26651,7 @@
       <c r="L518" s="6"/>
       <c r="M518" s="6"/>
     </row>
-    <row r="519" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26610,7 +26682,7 @@
       <c r="L519" s="6"/>
       <c r="M519" s="6"/>
     </row>
-    <row r="520" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26641,7 +26713,7 @@
       <c r="L520" s="6"/>
       <c r="M520" s="6"/>
     </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26672,7 +26744,7 @@
       <c r="L521" s="6"/>
       <c r="M521" s="6"/>
     </row>
-    <row r="522" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26703,7 +26775,7 @@
       <c r="L522" s="6"/>
       <c r="M522" s="6"/>
     </row>
-    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26734,7 +26806,7 @@
       <c r="L523" s="6"/>
       <c r="M523" s="6"/>
     </row>
-    <row r="524" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26765,7 +26837,7 @@
       <c r="L524" s="6"/>
       <c r="M524" s="6"/>
     </row>
-    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26796,7 +26868,7 @@
       <c r="L525" s="6"/>
       <c r="M525" s="6"/>
     </row>
-    <row r="526" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A526" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26827,7 +26899,7 @@
       <c r="L526" s="6"/>
       <c r="M526" s="6"/>
     </row>
-    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26858,7 +26930,7 @@
       <c r="L527" s="6"/>
       <c r="M527" s="6"/>
     </row>
-    <row r="528" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A528" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26889,7 +26961,7 @@
       <c r="L528" s="6"/>
       <c r="M528" s="6"/>
     </row>
-    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26920,7 +26992,7 @@
       <c r="L529" s="6"/>
       <c r="M529" s="6"/>
     </row>
-    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26951,7 +27023,7 @@
       <c r="L530" s="6"/>
       <c r="M530" s="6"/>
     </row>
-    <row r="531" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A531" s="6" t="s">
         <v>2045</v>
       </c>
@@ -26982,7 +27054,7 @@
       <c r="L531" s="6"/>
       <c r="M531" s="6"/>
     </row>
-    <row r="532" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A532" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27013,7 +27085,7 @@
       <c r="L532" s="6"/>
       <c r="M532" s="6"/>
     </row>
-    <row r="533" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A533" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27044,7 +27116,7 @@
       <c r="L533" s="6"/>
       <c r="M533" s="6"/>
     </row>
-    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27075,7 +27147,7 @@
       <c r="L534" s="6"/>
       <c r="M534" s="6"/>
     </row>
-    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27106,7 +27178,7 @@
       <c r="L535" s="6"/>
       <c r="M535" s="6"/>
     </row>
-    <row r="536" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A536" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27137,7 +27209,7 @@
       <c r="L536" s="6"/>
       <c r="M536" s="6"/>
     </row>
-    <row r="537" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27168,7 +27240,7 @@
       <c r="L537" s="6"/>
       <c r="M537" s="6"/>
     </row>
-    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27199,7 +27271,7 @@
       <c r="L538" s="6"/>
       <c r="M538" s="6"/>
     </row>
-    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27230,7 +27302,7 @@
       <c r="L539" s="6"/>
       <c r="M539" s="6"/>
     </row>
-    <row r="540" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A540" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27261,7 +27333,7 @@
       <c r="L540" s="6"/>
       <c r="M540" s="6"/>
     </row>
-    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27292,7 +27364,7 @@
       <c r="L541" s="6"/>
       <c r="M541" s="6"/>
     </row>
-    <row r="542" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A542" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27323,7 +27395,7 @@
       <c r="L542" s="6"/>
       <c r="M542" s="6"/>
     </row>
-    <row r="543" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A543" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27354,7 +27426,7 @@
       <c r="L543" s="6"/>
       <c r="M543" s="6"/>
     </row>
-    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27385,7 +27457,7 @@
       <c r="L544" s="6"/>
       <c r="M544" s="6"/>
     </row>
-    <row r="545" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A545" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27416,7 +27488,7 @@
       <c r="L545" s="6"/>
       <c r="M545" s="6"/>
     </row>
-    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27447,7 +27519,7 @@
       <c r="L546" s="6"/>
       <c r="M546" s="6"/>
     </row>
-    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27478,7 +27550,7 @@
       <c r="L547" s="6"/>
       <c r="M547" s="6"/>
     </row>
-    <row r="548" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A548" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27509,7 +27581,7 @@
       <c r="L548" s="6"/>
       <c r="M548" s="6"/>
     </row>
-    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A549" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27540,7 +27612,7 @@
       <c r="L549" s="6"/>
       <c r="M549" s="6"/>
     </row>
-    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A550" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27571,7 +27643,7 @@
       <c r="L550" s="6"/>
       <c r="M550" s="6"/>
     </row>
-    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A551" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27602,7 +27674,7 @@
       <c r="L551" s="6"/>
       <c r="M551" s="6"/>
     </row>
-    <row r="552" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A552" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27633,7 +27705,7 @@
       <c r="L552" s="6"/>
       <c r="M552" s="6"/>
     </row>
-    <row r="553" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A553" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27664,7 +27736,7 @@
       <c r="L553" s="6"/>
       <c r="M553" s="6"/>
     </row>
-    <row r="554" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A554" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27695,7 +27767,7 @@
       <c r="L554" s="6"/>
       <c r="M554" s="6"/>
     </row>
-    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A555" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27726,7 +27798,7 @@
       <c r="L555" s="6"/>
       <c r="M555" s="6"/>
     </row>
-    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A556" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27757,7 +27829,7 @@
       <c r="L556" s="6"/>
       <c r="M556" s="6"/>
     </row>
-    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A557" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27788,7 +27860,7 @@
       <c r="L557" s="6"/>
       <c r="M557" s="6"/>
     </row>
-    <row r="558" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A558" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27819,7 +27891,7 @@
       <c r="L558" s="6"/>
       <c r="M558" s="6"/>
     </row>
-    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27850,7 +27922,7 @@
       <c r="L559" s="6"/>
       <c r="M559" s="6"/>
     </row>
-    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27881,7 +27953,7 @@
       <c r="L560" s="6"/>
       <c r="M560" s="6"/>
     </row>
-    <row r="561" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A561" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27912,7 +27984,7 @@
       <c r="L561" s="6"/>
       <c r="M561" s="6"/>
     </row>
-    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A562" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27943,7 +28015,7 @@
       <c r="L562" s="6"/>
       <c r="M562" s="6"/>
     </row>
-    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A563" s="6" t="s">
         <v>2045</v>
       </c>
@@ -27974,7 +28046,7 @@
       <c r="L563" s="6"/>
       <c r="M563" s="6"/>
     </row>
-    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A564" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28005,7 +28077,7 @@
       <c r="L564" s="6"/>
       <c r="M564" s="6"/>
     </row>
-    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A565" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28036,7 +28108,7 @@
       <c r="L565" s="6"/>
       <c r="M565" s="6"/>
     </row>
-    <row r="566" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A566" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28067,7 +28139,7 @@
       <c r="L566" s="6"/>
       <c r="M566" s="6"/>
     </row>
-    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A567" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28098,7 +28170,7 @@
       <c r="L567" s="6"/>
       <c r="M567" s="6"/>
     </row>
-    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A568" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28129,7 +28201,7 @@
       <c r="L568" s="6"/>
       <c r="M568" s="6"/>
     </row>
-    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A569" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28160,7 +28232,7 @@
       <c r="L569" s="6"/>
       <c r="M569" s="6"/>
     </row>
-    <row r="570" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A570" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28191,7 +28263,7 @@
       <c r="L570" s="6"/>
       <c r="M570" s="6"/>
     </row>
-    <row r="571" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A571" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28222,7 +28294,7 @@
       <c r="L571" s="6"/>
       <c r="M571" s="6"/>
     </row>
-    <row r="572" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A572" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28253,7 +28325,7 @@
       <c r="L572" s="6"/>
       <c r="M572" s="6"/>
     </row>
-    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A573" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28284,7 +28356,7 @@
       <c r="L573" s="6"/>
       <c r="M573" s="6"/>
     </row>
-    <row r="574" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A574" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28315,7 +28387,7 @@
       <c r="L574" s="6"/>
       <c r="M574" s="6"/>
     </row>
-    <row r="575" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A575" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28346,7 +28418,7 @@
       <c r="L575" s="6"/>
       <c r="M575" s="6"/>
     </row>
-    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A576" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28377,7 +28449,7 @@
       <c r="L576" s="6"/>
       <c r="M576" s="6"/>
     </row>
-    <row r="577" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A577" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28408,7 +28480,7 @@
       <c r="L577" s="6"/>
       <c r="M577" s="6"/>
     </row>
-    <row r="578" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A578" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28439,7 +28511,7 @@
       <c r="L578" s="6"/>
       <c r="M578" s="6"/>
     </row>
-    <row r="579" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A579" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28470,7 +28542,7 @@
       <c r="L579" s="6"/>
       <c r="M579" s="6"/>
     </row>
-    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A580" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28501,7 +28573,7 @@
       <c r="L580" s="6"/>
       <c r="M580" s="6"/>
     </row>
-    <row r="581" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A581" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28532,7 +28604,7 @@
       <c r="L581" s="6"/>
       <c r="M581" s="6"/>
     </row>
-    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A582" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28563,7 +28635,7 @@
       <c r="L582" s="6"/>
       <c r="M582" s="6"/>
     </row>
-    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A583" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28594,7 +28666,7 @@
       <c r="L583" s="6"/>
       <c r="M583" s="6"/>
     </row>
-    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A584" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28625,7 +28697,7 @@
       <c r="L584" s="6"/>
       <c r="M584" s="6"/>
     </row>
-    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A585" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28656,7 +28728,7 @@
       <c r="L585" s="6"/>
       <c r="M585" s="6"/>
     </row>
-    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A586" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28687,7 +28759,7 @@
       <c r="L586" s="6"/>
       <c r="M586" s="6"/>
     </row>
-    <row r="587" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A587" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28718,7 +28790,7 @@
       <c r="L587" s="6"/>
       <c r="M587" s="6"/>
     </row>
-    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A588" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28749,7 +28821,7 @@
       <c r="L588" s="6"/>
       <c r="M588" s="6"/>
     </row>
-    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A589" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28780,7 +28852,7 @@
       <c r="L589" s="6"/>
       <c r="M589" s="6"/>
     </row>
-    <row r="590" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A590" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28811,7 +28883,7 @@
       <c r="L590" s="6"/>
       <c r="M590" s="6"/>
     </row>
-    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A591" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28842,7 +28914,7 @@
       <c r="L591" s="6"/>
       <c r="M591" s="6"/>
     </row>
-    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A592" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28873,7 +28945,7 @@
       <c r="L592" s="6"/>
       <c r="M592" s="6"/>
     </row>
-    <row r="593" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A593" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28904,7 +28976,7 @@
       <c r="L593" s="6"/>
       <c r="M593" s="6"/>
     </row>
-    <row r="594" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A594" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28935,7 +29007,7 @@
       <c r="L594" s="6"/>
       <c r="M594" s="6"/>
     </row>
-    <row r="595" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A595" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28966,7 +29038,7 @@
       <c r="L595" s="6"/>
       <c r="M595" s="6"/>
     </row>
-    <row r="596" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A596" s="6" t="s">
         <v>2045</v>
       </c>
@@ -28997,7 +29069,7 @@
       <c r="L596" s="6"/>
       <c r="M596" s="6"/>
     </row>
-    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A597" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29028,7 +29100,7 @@
       <c r="L597" s="6"/>
       <c r="M597" s="6"/>
     </row>
-    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A598" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29059,7 +29131,7 @@
       <c r="L598" s="6"/>
       <c r="M598" s="6"/>
     </row>
-    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A599" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29090,7 +29162,7 @@
       <c r="L599" s="6"/>
       <c r="M599" s="6"/>
     </row>
-    <row r="600" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A600" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29121,7 +29193,7 @@
       <c r="L600" s="6"/>
       <c r="M600" s="6"/>
     </row>
-    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A601" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29152,7 +29224,7 @@
       <c r="L601" s="6"/>
       <c r="M601" s="6"/>
     </row>
-    <row r="602" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A602" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29183,7 +29255,7 @@
       <c r="L602" s="6"/>
       <c r="M602" s="6"/>
     </row>
-    <row r="603" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A603" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29214,7 +29286,7 @@
       <c r="L603" s="6"/>
       <c r="M603" s="6"/>
     </row>
-    <row r="604" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A604" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29245,7 +29317,7 @@
       <c r="L604" s="6"/>
       <c r="M604" s="6"/>
     </row>
-    <row r="605" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A605" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29276,7 +29348,7 @@
       <c r="L605" s="6"/>
       <c r="M605" s="6"/>
     </row>
-    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A606" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29307,7 +29379,7 @@
       <c r="L606" s="6"/>
       <c r="M606" s="6"/>
     </row>
-    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A607" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29338,7 +29410,7 @@
       <c r="L607" s="6"/>
       <c r="M607" s="6"/>
     </row>
-    <row r="608" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A608" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29369,7 +29441,7 @@
       <c r="L608" s="6"/>
       <c r="M608" s="6"/>
     </row>
-    <row r="609" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A609" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29400,7 +29472,7 @@
       <c r="L609" s="6"/>
       <c r="M609" s="6"/>
     </row>
-    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A610" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29431,7 +29503,7 @@
       <c r="L610" s="6"/>
       <c r="M610" s="6"/>
     </row>
-    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A611" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29462,7 +29534,7 @@
       <c r="L611" s="6"/>
       <c r="M611" s="6"/>
     </row>
-    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A612" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29493,7 +29565,7 @@
       <c r="L612" s="6"/>
       <c r="M612" s="6"/>
     </row>
-    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A613" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29524,7 +29596,7 @@
       <c r="L613" s="6"/>
       <c r="M613" s="6"/>
     </row>
-    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A614" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29555,7 +29627,7 @@
       <c r="L614" s="6"/>
       <c r="M614" s="6"/>
     </row>
-    <row r="615" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A615" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29586,7 +29658,7 @@
       <c r="L615" s="6"/>
       <c r="M615" s="6"/>
     </row>
-    <row r="616" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A616" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29617,7 +29689,7 @@
       <c r="L616" s="6"/>
       <c r="M616" s="6"/>
     </row>
-    <row r="617" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A617" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29648,7 +29720,7 @@
       <c r="L617" s="6"/>
       <c r="M617" s="6"/>
     </row>
-    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A618" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29679,7 +29751,7 @@
       <c r="L618" s="6"/>
       <c r="M618" s="6"/>
     </row>
-    <row r="619" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A619" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29710,7 +29782,7 @@
       <c r="L619" s="6"/>
       <c r="M619" s="6"/>
     </row>
-    <row r="620" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A620" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29741,7 +29813,7 @@
       <c r="L620" s="6"/>
       <c r="M620" s="6"/>
     </row>
-    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A621" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29772,7 +29844,7 @@
       <c r="L621" s="6"/>
       <c r="M621" s="6"/>
     </row>
-    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A622" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29803,7 +29875,7 @@
       <c r="L622" s="6"/>
       <c r="M622" s="6"/>
     </row>
-    <row r="623" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A623" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29834,7 +29906,7 @@
       <c r="L623" s="6"/>
       <c r="M623" s="6"/>
     </row>
-    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A624" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29865,7 +29937,7 @@
       <c r="L624" s="6"/>
       <c r="M624" s="6"/>
     </row>
-    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29896,7 +29968,7 @@
       <c r="L625" s="6"/>
       <c r="M625" s="6"/>
     </row>
-    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A626" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29927,7 +29999,7 @@
       <c r="L626" s="6"/>
       <c r="M626" s="6"/>
     </row>
-    <row r="627" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A627" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29958,7 +30030,7 @@
       <c r="L627" s="6"/>
       <c r="M627" s="6"/>
     </row>
-    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A628" s="6" t="s">
         <v>2045</v>
       </c>
@@ -29989,7 +30061,7 @@
       <c r="L628" s="6"/>
       <c r="M628" s="6"/>
     </row>
-    <row r="629" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A629" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30020,7 +30092,7 @@
       <c r="L629" s="6"/>
       <c r="M629" s="6"/>
     </row>
-    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A630" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30051,7 +30123,7 @@
       <c r="L630" s="6"/>
       <c r="M630" s="6"/>
     </row>
-    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A631" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30082,7 +30154,7 @@
       <c r="L631" s="6"/>
       <c r="M631" s="6"/>
     </row>
-    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A632" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30113,7 +30185,7 @@
       <c r="L632" s="6"/>
       <c r="M632" s="6"/>
     </row>
-    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A633" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30144,7 +30216,7 @@
       <c r="L633" s="6"/>
       <c r="M633" s="6"/>
     </row>
-    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A634" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30175,7 +30247,7 @@
       <c r="L634" s="6"/>
       <c r="M634" s="6"/>
     </row>
-    <row r="635" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A635" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30206,7 +30278,7 @@
       <c r="L635" s="6"/>
       <c r="M635" s="6"/>
     </row>
-    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A636" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30237,7 +30309,7 @@
       <c r="L636" s="6"/>
       <c r="M636" s="6"/>
     </row>
-    <row r="637" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A637" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30268,7 +30340,7 @@
       <c r="L637" s="6"/>
       <c r="M637" s="6"/>
     </row>
-    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A638" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30299,7 +30371,7 @@
       <c r="L638" s="6"/>
       <c r="M638" s="6"/>
     </row>
-    <row r="639" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A639" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30330,7 +30402,7 @@
       <c r="L639" s="6"/>
       <c r="M639" s="6"/>
     </row>
-    <row r="640" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A640" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30361,7 +30433,7 @@
       <c r="L640" s="6"/>
       <c r="M640" s="6"/>
     </row>
-    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A641" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30392,7 +30464,7 @@
       <c r="L641" s="6"/>
       <c r="M641" s="6"/>
     </row>
-    <row r="642" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A642" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30423,7 +30495,7 @@
       <c r="L642" s="6"/>
       <c r="M642" s="6"/>
     </row>
-    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A643" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30454,7 +30526,7 @@
       <c r="L643" s="6"/>
       <c r="M643" s="6"/>
     </row>
-    <row r="644" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A644" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30485,7 +30557,7 @@
       <c r="L644" s="6"/>
       <c r="M644" s="6"/>
     </row>
-    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A645" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30516,7 +30588,7 @@
       <c r="L645" s="6"/>
       <c r="M645" s="6"/>
     </row>
-    <row r="646" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A646" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30547,7 +30619,7 @@
       <c r="L646" s="6"/>
       <c r="M646" s="6"/>
     </row>
-    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A647" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30578,7 +30650,7 @@
       <c r="L647" s="6"/>
       <c r="M647" s="6"/>
     </row>
-    <row r="648" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A648" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30609,7 +30681,7 @@
       <c r="L648" s="6"/>
       <c r="M648" s="6"/>
     </row>
-    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A649" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30640,7 +30712,7 @@
       <c r="L649" s="6"/>
       <c r="M649" s="6"/>
     </row>
-    <row r="650" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A650" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30671,7 +30743,7 @@
       <c r="L650" s="6"/>
       <c r="M650" s="6"/>
     </row>
-    <row r="651" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A651" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30702,7 +30774,7 @@
       <c r="L651" s="6"/>
       <c r="M651" s="6"/>
     </row>
-    <row r="652" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A652" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30733,7 +30805,7 @@
       <c r="L652" s="6"/>
       <c r="M652" s="6"/>
     </row>
-    <row r="653" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A653" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30764,7 +30836,7 @@
       <c r="L653" s="6"/>
       <c r="M653" s="6"/>
     </row>
-    <row r="654" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A654" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30795,7 +30867,7 @@
       <c r="L654" s="6"/>
       <c r="M654" s="6"/>
     </row>
-    <row r="655" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A655" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30826,7 +30898,7 @@
       <c r="L655" s="6"/>
       <c r="M655" s="6"/>
     </row>
-    <row r="656" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A656" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30857,7 +30929,7 @@
       <c r="L656" s="6"/>
       <c r="M656" s="6"/>
     </row>
-    <row r="657" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A657" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30888,7 +30960,7 @@
       <c r="L657" s="6"/>
       <c r="M657" s="6"/>
     </row>
-    <row r="658" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A658" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30919,7 +30991,7 @@
       <c r="L658" s="6"/>
       <c r="M658" s="6"/>
     </row>
-    <row r="659" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A659" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30950,7 +31022,7 @@
       <c r="L659" s="6"/>
       <c r="M659" s="6"/>
     </row>
-    <row r="660" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A660" s="6" t="s">
         <v>2045</v>
       </c>
@@ -30981,7 +31053,7 @@
       <c r="L660" s="6"/>
       <c r="M660" s="6"/>
     </row>
-    <row r="661" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A661" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31012,7 +31084,7 @@
       <c r="L661" s="6"/>
       <c r="M661" s="6"/>
     </row>
-    <row r="662" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A662" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31043,7 +31115,7 @@
       <c r="L662" s="6"/>
       <c r="M662" s="6"/>
     </row>
-    <row r="663" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A663" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31074,7 +31146,7 @@
       <c r="L663" s="6"/>
       <c r="M663" s="6"/>
     </row>
-    <row r="664" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A664" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31105,7 +31177,7 @@
       <c r="L664" s="6"/>
       <c r="M664" s="6"/>
     </row>
-    <row r="665" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A665" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31136,7 +31208,7 @@
       <c r="L665" s="6"/>
       <c r="M665" s="6"/>
     </row>
-    <row r="666" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A666" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31167,7 +31239,7 @@
       <c r="L666" s="6"/>
       <c r="M666" s="6"/>
     </row>
-    <row r="667" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A667" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31198,7 +31270,7 @@
       <c r="L667" s="6"/>
       <c r="M667" s="6"/>
     </row>
-    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A668" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31229,7 +31301,7 @@
       <c r="L668" s="6"/>
       <c r="M668" s="6"/>
     </row>
-    <row r="669" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A669" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31260,7 +31332,7 @@
       <c r="L669" s="6"/>
       <c r="M669" s="6"/>
     </row>
-    <row r="670" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A670" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31291,7 +31363,7 @@
       <c r="L670" s="6"/>
       <c r="M670" s="6"/>
     </row>
-    <row r="671" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A671" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31322,7 +31394,7 @@
       <c r="L671" s="6"/>
       <c r="M671" s="6"/>
     </row>
-    <row r="672" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A672" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31353,7 +31425,7 @@
       <c r="L672" s="6"/>
       <c r="M672" s="6"/>
     </row>
-    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A673" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31384,7 +31456,7 @@
       <c r="L673" s="6"/>
       <c r="M673" s="6"/>
     </row>
-    <row r="674" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A674" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31415,7 +31487,7 @@
       <c r="L674" s="6"/>
       <c r="M674" s="6"/>
     </row>
-    <row r="675" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A675" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31446,7 +31518,7 @@
       <c r="L675" s="6"/>
       <c r="M675" s="6"/>
     </row>
-    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A676" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31477,7 +31549,7 @@
       <c r="L676" s="6"/>
       <c r="M676" s="6"/>
     </row>
-    <row r="677" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A677" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31508,7 +31580,7 @@
       <c r="L677" s="6"/>
       <c r="M677" s="6"/>
     </row>
-    <row r="678" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A678" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31539,7 +31611,7 @@
       <c r="L678" s="6"/>
       <c r="M678" s="6"/>
     </row>
-    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A679" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31570,7 +31642,7 @@
       <c r="L679" s="6"/>
       <c r="M679" s="6"/>
     </row>
-    <row r="680" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A680" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31609,7 +31681,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A681" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31640,7 +31712,7 @@
       <c r="L681" s="6"/>
       <c r="M681" s="6"/>
     </row>
-    <row r="682" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A682" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31671,7 +31743,7 @@
       <c r="L682" s="6"/>
       <c r="M682" s="6"/>
     </row>
-    <row r="683" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A683" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31702,7 +31774,7 @@
       <c r="L683" s="6"/>
       <c r="M683" s="6"/>
     </row>
-    <row r="684" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A684" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31733,7 +31805,7 @@
       <c r="L684" s="6"/>
       <c r="M684" s="6"/>
     </row>
-    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A685" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31764,7 +31836,7 @@
       <c r="L685" s="6"/>
       <c r="M685" s="6"/>
     </row>
-    <row r="686" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A686" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31795,7 +31867,7 @@
       <c r="L686" s="6"/>
       <c r="M686" s="6"/>
     </row>
-    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A687" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31826,7 +31898,7 @@
       <c r="L687" s="6"/>
       <c r="M687" s="6"/>
     </row>
-    <row r="688" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A688" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31857,7 +31929,7 @@
       <c r="L688" s="6"/>
       <c r="M688" s="6"/>
     </row>
-    <row r="689" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A689" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31888,7 +31960,7 @@
       <c r="L689" s="6"/>
       <c r="M689" s="6"/>
     </row>
-    <row r="690" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A690" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31919,7 +31991,7 @@
       <c r="L690" s="6"/>
       <c r="M690" s="6"/>
     </row>
-    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A691" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31950,7 +32022,7 @@
       <c r="L691" s="6"/>
       <c r="M691" s="6"/>
     </row>
-    <row r="692" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A692" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31981,7 +32053,7 @@
       <c r="L692" s="6"/>
       <c r="M692" s="6"/>
     </row>
-    <row r="693" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A693" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32012,7 +32084,7 @@
       <c r="L693" s="6"/>
       <c r="M693" s="6"/>
     </row>
-    <row r="694" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A694" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32043,7 +32115,7 @@
       <c r="L694" s="6"/>
       <c r="M694" s="6"/>
     </row>
-    <row r="695" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A695" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32074,7 +32146,7 @@
       <c r="L695" s="6"/>
       <c r="M695" s="6"/>
     </row>
-    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A696" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32105,7 +32177,7 @@
       <c r="L696" s="6"/>
       <c r="M696" s="6"/>
     </row>
-    <row r="697" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A697" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32136,7 +32208,7 @@
       <c r="L697" s="6"/>
       <c r="M697" s="6"/>
     </row>
-    <row r="698" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A698" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32167,7 +32239,7 @@
       <c r="L698" s="6"/>
       <c r="M698" s="6"/>
     </row>
-    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A699" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32198,7 +32270,7 @@
       <c r="L699" s="6"/>
       <c r="M699" s="6"/>
     </row>
-    <row r="700" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A700" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32229,7 +32301,7 @@
       <c r="L700" s="6"/>
       <c r="M700" s="6"/>
     </row>
-    <row r="701" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A701" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32260,7 +32332,7 @@
       <c r="L701" s="6"/>
       <c r="M701" s="6"/>
     </row>
-    <row r="702" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A702" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32291,7 +32363,7 @@
       <c r="L702" s="6"/>
       <c r="M702" s="6"/>
     </row>
-    <row r="703" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A703" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32322,7 +32394,7 @@
       <c r="L703" s="6"/>
       <c r="M703" s="6"/>
     </row>
-    <row r="704" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A704" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32353,7 +32425,7 @@
       <c r="L704" s="6"/>
       <c r="M704" s="6"/>
     </row>
-    <row r="705" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A705" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32384,7 +32456,7 @@
       <c r="L705" s="6"/>
       <c r="M705" s="6"/>
     </row>
-    <row r="706" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A706" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32415,7 +32487,7 @@
       <c r="L706" s="6"/>
       <c r="M706" s="6"/>
     </row>
-    <row r="707" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A707" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32446,7 +32518,7 @@
       <c r="L707" s="6"/>
       <c r="M707" s="6"/>
     </row>
-    <row r="708" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A708" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32477,7 +32549,7 @@
       <c r="L708" s="6"/>
       <c r="M708" s="6"/>
     </row>
-    <row r="709" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A709" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32508,7 +32580,7 @@
       <c r="L709" s="6"/>
       <c r="M709" s="6"/>
     </row>
-    <row r="710" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A710" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32539,7 +32611,7 @@
       <c r="L710" s="6"/>
       <c r="M710" s="6"/>
     </row>
-    <row r="711" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A711" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32570,7 +32642,7 @@
       <c r="L711" s="6"/>
       <c r="M711" s="6"/>
     </row>
-    <row r="712" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A712" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32601,7 +32673,7 @@
       <c r="L712" s="6"/>
       <c r="M712" s="6"/>
     </row>
-    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A713" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32632,7 +32704,7 @@
       <c r="L713" s="6"/>
       <c r="M713" s="6"/>
     </row>
-    <row r="714" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A714" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32663,7 +32735,7 @@
       <c r="L714" s="6"/>
       <c r="M714" s="6"/>
     </row>
-    <row r="715" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A715" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32694,7 +32766,7 @@
       <c r="L715" s="6"/>
       <c r="M715" s="6"/>
     </row>
-    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A716" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32725,7 +32797,7 @@
       <c r="L716" s="6"/>
       <c r="M716" s="6"/>
     </row>
-    <row r="717" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A717" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32756,7 +32828,7 @@
       <c r="L717" s="6"/>
       <c r="M717" s="6"/>
     </row>
-    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A718" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32787,7 +32859,7 @@
       <c r="L718" s="6"/>
       <c r="M718" s="6"/>
     </row>
-    <row r="719" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A719" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32818,7 +32890,7 @@
       <c r="L719" s="6"/>
       <c r="M719" s="6"/>
     </row>
-    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A720" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32849,7 +32921,7 @@
       <c r="L720" s="6"/>
       <c r="M720" s="6"/>
     </row>
-    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A721" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32880,7 +32952,7 @@
       <c r="L721" s="6"/>
       <c r="M721" s="6"/>
     </row>
-    <row r="722" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A722" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32911,7 +32983,7 @@
       <c r="L722" s="6"/>
       <c r="M722" s="6"/>
     </row>
-    <row r="723" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A723" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32942,7 +33014,7 @@
       <c r="L723" s="6"/>
       <c r="M723" s="6"/>
     </row>
-    <row r="724" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A724" s="6" t="s">
         <v>2045</v>
       </c>
@@ -32973,7 +33045,7 @@
       <c r="L724" s="6"/>
       <c r="M724" s="6"/>
     </row>
-    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A725" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33004,7 +33076,7 @@
       <c r="L725" s="6"/>
       <c r="M725" s="6"/>
     </row>
-    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A726" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33035,7 +33107,7 @@
       <c r="L726" s="6"/>
       <c r="M726" s="6"/>
     </row>
-    <row r="727" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A727" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33066,7 +33138,7 @@
       <c r="L727" s="6"/>
       <c r="M727" s="6"/>
     </row>
-    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A728" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33097,7 +33169,7 @@
       <c r="L728" s="6"/>
       <c r="M728" s="6"/>
     </row>
-    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A729" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33128,7 +33200,7 @@
       <c r="L729" s="6"/>
       <c r="M729" s="6"/>
     </row>
-    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A730" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33159,7 +33231,7 @@
       <c r="L730" s="6"/>
       <c r="M730" s="6"/>
     </row>
-    <row r="731" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A731" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33190,7 +33262,7 @@
       <c r="L731" s="6"/>
       <c r="M731" s="6"/>
     </row>
-    <row r="732" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A732" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33221,7 +33293,7 @@
       <c r="L732" s="6"/>
       <c r="M732" s="6"/>
     </row>
-    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A733" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33252,7 +33324,7 @@
       <c r="L733" s="6"/>
       <c r="M733" s="6"/>
     </row>
-    <row r="734" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A734" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33283,7 +33355,7 @@
       <c r="L734" s="6"/>
       <c r="M734" s="6"/>
     </row>
-    <row r="735" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A735" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33314,7 +33386,7 @@
       <c r="L735" s="6"/>
       <c r="M735" s="6"/>
     </row>
-    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A736" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33345,7 +33417,7 @@
       <c r="L736" s="6"/>
       <c r="M736" s="6"/>
     </row>
-    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A737" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33376,7 +33448,7 @@
       <c r="L737" s="6"/>
       <c r="M737" s="6"/>
     </row>
-    <row r="738" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A738" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33407,7 +33479,7 @@
       <c r="L738" s="6"/>
       <c r="M738" s="6"/>
     </row>
-    <row r="739" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A739" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33438,7 +33510,7 @@
       <c r="L739" s="6"/>
       <c r="M739" s="6"/>
     </row>
-    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A740" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33469,7 +33541,7 @@
       <c r="L740" s="6"/>
       <c r="M740" s="6"/>
     </row>
-    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A741" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33500,7 +33572,7 @@
       <c r="L741" s="6"/>
       <c r="M741" s="6"/>
     </row>
-    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A742" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33531,7 +33603,7 @@
       <c r="L742" s="6"/>
       <c r="M742" s="6"/>
     </row>
-    <row r="743" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A743" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33562,7 +33634,7 @@
       <c r="L743" s="6"/>
       <c r="M743" s="6"/>
     </row>
-    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A744" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33593,7 +33665,7 @@
       <c r="L744" s="6"/>
       <c r="M744" s="6"/>
     </row>
-    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A745" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33624,7 +33696,7 @@
       <c r="L745" s="6"/>
       <c r="M745" s="6"/>
     </row>
-    <row r="746" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A746" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33655,7 +33727,7 @@
       <c r="L746" s="6"/>
       <c r="M746" s="6"/>
     </row>
-    <row r="747" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A747" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33686,7 +33758,7 @@
       <c r="L747" s="6"/>
       <c r="M747" s="6"/>
     </row>
-    <row r="748" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A748" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33717,7 +33789,7 @@
       <c r="L748" s="6"/>
       <c r="M748" s="6"/>
     </row>
-    <row r="749" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A749" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33748,7 +33820,7 @@
       <c r="L749" s="6"/>
       <c r="M749" s="6"/>
     </row>
-    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A750" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33779,7 +33851,7 @@
       <c r="L750" s="6"/>
       <c r="M750" s="6"/>
     </row>
-    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A751" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33810,7 +33882,7 @@
       <c r="L751" s="6"/>
       <c r="M751" s="6"/>
     </row>
-    <row r="752" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A752" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33841,7 +33913,7 @@
       <c r="L752" s="6"/>
       <c r="M752" s="6"/>
     </row>
-    <row r="753" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A753" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33872,7 +33944,7 @@
       <c r="L753" s="6"/>
       <c r="M753" s="6"/>
     </row>
-    <row r="754" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A754" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33903,7 +33975,7 @@
       <c r="L754" s="6"/>
       <c r="M754" s="6"/>
     </row>
-    <row r="755" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A755" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33934,7 +34006,7 @@
       <c r="L755" s="6"/>
       <c r="M755" s="6"/>
     </row>
-    <row r="756" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A756" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33965,7 +34037,7 @@
       <c r="L756" s="6"/>
       <c r="M756" s="6"/>
     </row>
-    <row r="757" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A757" s="6" t="s">
         <v>2045</v>
       </c>
@@ -33996,7 +34068,7 @@
       <c r="L757" s="6"/>
       <c r="M757" s="6"/>
     </row>
-    <row r="758" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A758" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34027,7 +34099,7 @@
       <c r="L758" s="6"/>
       <c r="M758" s="6"/>
     </row>
-    <row r="759" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A759" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34058,7 +34130,7 @@
       <c r="L759" s="6"/>
       <c r="M759" s="6"/>
     </row>
-    <row r="760" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A760" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34089,7 +34161,7 @@
       <c r="L760" s="6"/>
       <c r="M760" s="6"/>
     </row>
-    <row r="761" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A761" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34120,7 +34192,7 @@
       <c r="L761" s="6"/>
       <c r="M761" s="6"/>
     </row>
-    <row r="762" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A762" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34151,7 +34223,7 @@
       <c r="L762" s="6"/>
       <c r="M762" s="6"/>
     </row>
-    <row r="763" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A763" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34182,7 +34254,7 @@
       <c r="L763" s="6"/>
       <c r="M763" s="6"/>
     </row>
-    <row r="764" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A764" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34213,7 +34285,7 @@
       <c r="L764" s="6"/>
       <c r="M764" s="6"/>
     </row>
-    <row r="765" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A765" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34244,7 +34316,7 @@
       <c r="L765" s="6"/>
       <c r="M765" s="6"/>
     </row>
-    <row r="766" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A766" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34275,7 +34347,7 @@
       <c r="L766" s="6"/>
       <c r="M766" s="6"/>
     </row>
-    <row r="767" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A767" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34306,7 +34378,7 @@
       <c r="L767" s="6"/>
       <c r="M767" s="6"/>
     </row>
-    <row r="768" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A768" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34337,7 +34409,7 @@
       <c r="L768" s="6"/>
       <c r="M768" s="6"/>
     </row>
-    <row r="769" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A769" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34368,7 +34440,7 @@
       <c r="L769" s="6"/>
       <c r="M769" s="6"/>
     </row>
-    <row r="770" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A770" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34399,7 +34471,7 @@
       <c r="L770" s="6"/>
       <c r="M770" s="6"/>
     </row>
-    <row r="771" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A771" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34430,7 +34502,7 @@
       <c r="L771" s="6"/>
       <c r="M771" s="6"/>
     </row>
-    <row r="772" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A772" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34461,7 +34533,7 @@
       <c r="L772" s="6"/>
       <c r="M772" s="6"/>
     </row>
-    <row r="773" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A773" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34492,7 +34564,7 @@
       <c r="L773" s="6"/>
       <c r="M773" s="6"/>
     </row>
-    <row r="774" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A774" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34523,7 +34595,7 @@
       <c r="L774" s="6"/>
       <c r="M774" s="6"/>
     </row>
-    <row r="775" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A775" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34554,7 +34626,7 @@
       <c r="L775" s="6"/>
       <c r="M775" s="6"/>
     </row>
-    <row r="776" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A776" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34585,7 +34657,7 @@
       <c r="L776" s="6"/>
       <c r="M776" s="6"/>
     </row>
-    <row r="777" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A777" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34616,7 +34688,7 @@
       <c r="L777" s="6"/>
       <c r="M777" s="6"/>
     </row>
-    <row r="778" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A778" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34647,7 +34719,7 @@
       <c r="L778" s="6"/>
       <c r="M778" s="6"/>
     </row>
-    <row r="779" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A779" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34678,7 +34750,7 @@
       <c r="L779" s="6"/>
       <c r="M779" s="6"/>
     </row>
-    <row r="780" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A780" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34709,7 +34781,7 @@
       <c r="L780" s="6"/>
       <c r="M780" s="6"/>
     </row>
-    <row r="781" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A781" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34740,7 +34812,7 @@
       <c r="L781" s="6"/>
       <c r="M781" s="6"/>
     </row>
-    <row r="782" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A782" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34771,7 +34843,7 @@
       <c r="L782" s="6"/>
       <c r="M782" s="6"/>
     </row>
-    <row r="783" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A783" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34802,7 +34874,7 @@
       <c r="L783" s="6"/>
       <c r="M783" s="6"/>
     </row>
-    <row r="784" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A784" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34833,7 +34905,7 @@
       <c r="L784" s="6"/>
       <c r="M784" s="6"/>
     </row>
-    <row r="785" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A785" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34864,7 +34936,7 @@
       <c r="L785" s="6"/>
       <c r="M785" s="6"/>
     </row>
-    <row r="786" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A786" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34895,7 +34967,7 @@
       <c r="L786" s="6"/>
       <c r="M786" s="6"/>
     </row>
-    <row r="787" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A787" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34926,7 +34998,7 @@
       <c r="L787" s="6"/>
       <c r="M787" s="6"/>
     </row>
-    <row r="788" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A788" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34957,7 +35029,7 @@
       <c r="L788" s="6"/>
       <c r="M788" s="6"/>
     </row>
-    <row r="789" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A789" s="6" t="s">
         <v>2045</v>
       </c>
@@ -34988,7 +35060,7 @@
       <c r="L789" s="6"/>
       <c r="M789" s="6"/>
     </row>
-    <row r="790" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A790" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35019,7 +35091,7 @@
       <c r="L790" s="6"/>
       <c r="M790" s="6"/>
     </row>
-    <row r="791" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A791" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35050,7 +35122,7 @@
       <c r="L791" s="6"/>
       <c r="M791" s="6"/>
     </row>
-    <row r="792" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A792" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35081,7 +35153,7 @@
       <c r="L792" s="6"/>
       <c r="M792" s="6"/>
     </row>
-    <row r="793" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A793" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35112,7 +35184,7 @@
       <c r="L793" s="6"/>
       <c r="M793" s="6"/>
     </row>
-    <row r="794" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A794" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35143,7 +35215,7 @@
       <c r="L794" s="6"/>
       <c r="M794" s="6"/>
     </row>
-    <row r="795" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A795" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35174,7 +35246,7 @@
       <c r="L795" s="6"/>
       <c r="M795" s="6"/>
     </row>
-    <row r="796" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A796" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35205,7 +35277,7 @@
       <c r="L796" s="6"/>
       <c r="M796" s="6"/>
     </row>
-    <row r="797" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A797" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35236,7 +35308,7 @@
       <c r="L797" s="6"/>
       <c r="M797" s="6"/>
     </row>
-    <row r="798" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A798" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35267,7 +35339,7 @@
       <c r="L798" s="6"/>
       <c r="M798" s="6"/>
     </row>
-    <row r="799" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A799" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35298,7 +35370,7 @@
       <c r="L799" s="6"/>
       <c r="M799" s="6"/>
     </row>
-    <row r="800" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A800" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35329,7 +35401,7 @@
       <c r="L800" s="6"/>
       <c r="M800" s="6"/>
     </row>
-    <row r="801" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A801" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35360,7 +35432,7 @@
       <c r="L801" s="6"/>
       <c r="M801" s="6"/>
     </row>
-    <row r="802" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A802" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35391,7 +35463,7 @@
       <c r="L802" s="6"/>
       <c r="M802" s="6"/>
     </row>
-    <row r="803" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A803" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35422,7 +35494,7 @@
       <c r="L803" s="6"/>
       <c r="M803" s="6"/>
     </row>
-    <row r="804" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A804" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35453,7 +35525,7 @@
       <c r="L804" s="6"/>
       <c r="M804" s="6"/>
     </row>
-    <row r="805" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A805" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35484,7 +35556,7 @@
       <c r="L805" s="6"/>
       <c r="M805" s="6"/>
     </row>
-    <row r="806" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A806" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35515,7 +35587,7 @@
       <c r="L806" s="6"/>
       <c r="M806" s="6"/>
     </row>
-    <row r="807" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A807" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35546,7 +35618,7 @@
       <c r="L807" s="6"/>
       <c r="M807" s="6"/>
     </row>
-    <row r="808" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A808" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35577,7 +35649,7 @@
       <c r="L808" s="6"/>
       <c r="M808" s="6"/>
     </row>
-    <row r="809" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A809" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35608,7 +35680,7 @@
       <c r="L809" s="6"/>
       <c r="M809" s="6"/>
     </row>
-    <row r="810" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A810" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35639,7 +35711,7 @@
       <c r="L810" s="6"/>
       <c r="M810" s="6"/>
     </row>
-    <row r="811" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A811" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35670,7 +35742,7 @@
       <c r="L811" s="6"/>
       <c r="M811" s="6"/>
     </row>
-    <row r="812" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A812" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35701,7 +35773,7 @@
       <c r="L812" s="6"/>
       <c r="M812" s="6"/>
     </row>
-    <row r="813" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A813" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35732,7 +35804,7 @@
       <c r="L813" s="6"/>
       <c r="M813" s="6"/>
     </row>
-    <row r="814" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A814" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35763,7 +35835,7 @@
       <c r="L814" s="6"/>
       <c r="M814" s="6"/>
     </row>
-    <row r="815" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A815" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35794,7 +35866,7 @@
       <c r="L815" s="6"/>
       <c r="M815" s="6"/>
     </row>
-    <row r="816" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A816" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35825,7 +35897,7 @@
       <c r="L816" s="6"/>
       <c r="M816" s="6"/>
     </row>
-    <row r="817" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A817" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35856,7 +35928,7 @@
       <c r="L817" s="6"/>
       <c r="M817" s="6"/>
     </row>
-    <row r="818" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A818" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35887,7 +35959,7 @@
       <c r="L818" s="6"/>
       <c r="M818" s="6"/>
     </row>
-    <row r="819" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A819" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35918,7 +35990,7 @@
       <c r="L819" s="6"/>
       <c r="M819" s="6"/>
     </row>
-    <row r="820" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A820" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35949,7 +36021,7 @@
       <c r="L820" s="6"/>
       <c r="M820" s="6"/>
     </row>
-    <row r="821" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A821" s="6" t="s">
         <v>2045</v>
       </c>
@@ -35980,7 +36052,7 @@
       <c r="L821" s="6"/>
       <c r="M821" s="6"/>
     </row>
-    <row r="822" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A822" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36011,7 +36083,7 @@
       <c r="L822" s="6"/>
       <c r="M822" s="6"/>
     </row>
-    <row r="823" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A823" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36042,7 +36114,7 @@
       <c r="L823" s="6"/>
       <c r="M823" s="6"/>
     </row>
-    <row r="824" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A824" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36073,7 +36145,7 @@
       <c r="L824" s="6"/>
       <c r="M824" s="6"/>
     </row>
-    <row r="825" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A825" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36104,7 +36176,7 @@
       <c r="L825" s="6"/>
       <c r="M825" s="6"/>
     </row>
-    <row r="826" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A826" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36135,7 +36207,7 @@
       <c r="L826" s="6"/>
       <c r="M826" s="6"/>
     </row>
-    <row r="827" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A827" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36166,7 +36238,7 @@
       <c r="L827" s="6"/>
       <c r="M827" s="6"/>
     </row>
-    <row r="828" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A828" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36197,7 +36269,7 @@
       <c r="L828" s="6"/>
       <c r="M828" s="6"/>
     </row>
-    <row r="829" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A829" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36228,7 +36300,7 @@
       <c r="L829" s="6"/>
       <c r="M829" s="6"/>
     </row>
-    <row r="830" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A830" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36259,7 +36331,7 @@
       <c r="L830" s="6"/>
       <c r="M830" s="6"/>
     </row>
-    <row r="831" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A831" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36290,7 +36362,7 @@
       <c r="L831" s="6"/>
       <c r="M831" s="6"/>
     </row>
-    <row r="832" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A832" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36321,7 +36393,7 @@
       <c r="L832" s="6"/>
       <c r="M832" s="6"/>
     </row>
-    <row r="833" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A833" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36352,7 +36424,7 @@
       <c r="L833" s="6"/>
       <c r="M833" s="6"/>
     </row>
-    <row r="834" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A834" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36383,7 +36455,7 @@
       <c r="L834" s="6"/>
       <c r="M834" s="6"/>
     </row>
-    <row r="835" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A835" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36414,7 +36486,7 @@
       <c r="L835" s="6"/>
       <c r="M835" s="6"/>
     </row>
-    <row r="836" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A836" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36445,7 +36517,7 @@
       <c r="L836" s="6"/>
       <c r="M836" s="6"/>
     </row>
-    <row r="837" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A837" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36476,7 +36548,7 @@
       <c r="L837" s="6"/>
       <c r="M837" s="6"/>
     </row>
-    <row r="838" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A838" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36507,7 +36579,7 @@
       <c r="L838" s="6"/>
       <c r="M838" s="6"/>
     </row>
-    <row r="839" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A839" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36538,7 +36610,7 @@
       <c r="L839" s="6"/>
       <c r="M839" s="6"/>
     </row>
-    <row r="840" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A840" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36569,7 +36641,7 @@
       <c r="L840" s="6"/>
       <c r="M840" s="6"/>
     </row>
-    <row r="841" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A841" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36600,7 +36672,7 @@
       <c r="L841" s="6"/>
       <c r="M841" s="6"/>
     </row>
-    <row r="842" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A842" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36631,7 +36703,7 @@
       <c r="L842" s="6"/>
       <c r="M842" s="6"/>
     </row>
-    <row r="843" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A843" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36662,7 +36734,7 @@
       <c r="L843" s="6"/>
       <c r="M843" s="6"/>
     </row>
-    <row r="844" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A844" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36693,7 +36765,7 @@
       <c r="L844" s="6"/>
       <c r="M844" s="6"/>
     </row>
-    <row r="845" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A845" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36724,7 +36796,7 @@
       <c r="L845" s="6"/>
       <c r="M845" s="6"/>
     </row>
-    <row r="846" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A846" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36755,7 +36827,7 @@
       <c r="L846" s="6"/>
       <c r="M846" s="6"/>
     </row>
-    <row r="847" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A847" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36786,7 +36858,7 @@
       <c r="L847" s="6"/>
       <c r="M847" s="6"/>
     </row>
-    <row r="848" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A848" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36817,7 +36889,7 @@
       <c r="L848" s="6"/>
       <c r="M848" s="6"/>
     </row>
-    <row r="849" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A849" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36848,7 +36920,7 @@
       <c r="L849" s="6"/>
       <c r="M849" s="6"/>
     </row>
-    <row r="850" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A850" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36879,7 +36951,7 @@
       <c r="L850" s="6"/>
       <c r="M850" s="6"/>
     </row>
-    <row r="851" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A851" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36910,7 +36982,7 @@
       <c r="L851" s="6"/>
       <c r="M851" s="6"/>
     </row>
-    <row r="852" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A852" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36941,7 +37013,7 @@
       <c r="L852" s="6"/>
       <c r="M852" s="6"/>
     </row>
-    <row r="853" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A853" s="6" t="s">
         <v>2045</v>
       </c>
@@ -36972,7 +37044,7 @@
       <c r="L853" s="6"/>
       <c r="M853" s="6"/>
     </row>
-    <row r="854" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A854" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37003,7 +37075,7 @@
       <c r="L854" s="6"/>
       <c r="M854" s="6"/>
     </row>
-    <row r="855" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A855" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37034,7 +37106,7 @@
       <c r="L855" s="6"/>
       <c r="M855" s="6"/>
     </row>
-    <row r="856" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A856" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37065,7 +37137,7 @@
       <c r="L856" s="6"/>
       <c r="M856" s="6"/>
     </row>
-    <row r="857" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A857" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37096,7 +37168,7 @@
       <c r="L857" s="6"/>
       <c r="M857" s="6"/>
     </row>
-    <row r="858" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A858" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37127,7 +37199,7 @@
       <c r="L858" s="6"/>
       <c r="M858" s="6"/>
     </row>
-    <row r="859" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A859" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37158,7 +37230,7 @@
       <c r="L859" s="6"/>
       <c r="M859" s="6"/>
     </row>
-    <row r="860" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A860" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37189,7 +37261,7 @@
       <c r="L860" s="6"/>
       <c r="M860" s="6"/>
     </row>
-    <row r="861" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A861" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37220,7 +37292,7 @@
       <c r="L861" s="6"/>
       <c r="M861" s="6"/>
     </row>
-    <row r="862" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A862" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37251,7 +37323,7 @@
       <c r="L862" s="6"/>
       <c r="M862" s="6"/>
     </row>
-    <row r="863" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A863" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37282,7 +37354,7 @@
       <c r="L863" s="6"/>
       <c r="M863" s="6"/>
     </row>
-    <row r="864" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A864" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37313,7 +37385,7 @@
       <c r="L864" s="6"/>
       <c r="M864" s="6"/>
     </row>
-    <row r="865" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A865" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37344,7 +37416,7 @@
       <c r="L865" s="6"/>
       <c r="M865" s="6"/>
     </row>
-    <row r="866" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A866" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37375,7 +37447,7 @@
       <c r="L866" s="6"/>
       <c r="M866" s="6"/>
     </row>
-    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A867" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37406,7 +37478,7 @@
       <c r="L867" s="6"/>
       <c r="M867" s="6"/>
     </row>
-    <row r="868" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A868" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37437,7 +37509,7 @@
       <c r="L868" s="6"/>
       <c r="M868" s="6"/>
     </row>
-    <row r="869" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A869" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37468,7 +37540,7 @@
       <c r="L869" s="6"/>
       <c r="M869" s="6"/>
     </row>
-    <row r="870" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A870" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37499,7 +37571,7 @@
       <c r="L870" s="6"/>
       <c r="M870" s="6"/>
     </row>
-    <row r="871" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A871" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37530,7 +37602,7 @@
       <c r="L871" s="6"/>
       <c r="M871" s="6"/>
     </row>
-    <row r="872" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A872" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37561,7 +37633,7 @@
       <c r="L872" s="6"/>
       <c r="M872" s="6"/>
     </row>
-    <row r="873" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A873" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37592,7 +37664,7 @@
       <c r="L873" s="6"/>
       <c r="M873" s="6"/>
     </row>
-    <row r="874" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A874" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37623,7 +37695,7 @@
       <c r="L874" s="6"/>
       <c r="M874" s="6"/>
     </row>
-    <row r="875" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A875" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37654,7 +37726,7 @@
       <c r="L875" s="6"/>
       <c r="M875" s="6"/>
     </row>
-    <row r="876" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A876" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37685,7 +37757,7 @@
       <c r="L876" s="6"/>
       <c r="M876" s="6"/>
     </row>
-    <row r="877" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A877" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37716,7 +37788,7 @@
       <c r="L877" s="6"/>
       <c r="M877" s="6"/>
     </row>
-    <row r="878" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A878" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37747,7 +37819,7 @@
       <c r="L878" s="6"/>
       <c r="M878" s="6"/>
     </row>
-    <row r="879" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A879" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37778,7 +37850,7 @@
       <c r="L879" s="6"/>
       <c r="M879" s="6"/>
     </row>
-    <row r="880" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A880" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37809,7 +37881,7 @@
       <c r="L880" s="6"/>
       <c r="M880" s="6"/>
     </row>
-    <row r="881" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A881" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37840,7 +37912,7 @@
       <c r="L881" s="6"/>
       <c r="M881" s="6"/>
     </row>
-    <row r="882" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A882" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37871,7 +37943,7 @@
       <c r="L882" s="6"/>
       <c r="M882" s="6"/>
     </row>
-    <row r="883" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A883" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37902,7 +37974,7 @@
       <c r="L883" s="6"/>
       <c r="M883" s="6"/>
     </row>
-    <row r="884" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A884" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37933,7 +38005,7 @@
       <c r="L884" s="6"/>
       <c r="M884" s="6"/>
     </row>
-    <row r="885" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A885" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37964,7 +38036,7 @@
       <c r="L885" s="6"/>
       <c r="M885" s="6"/>
     </row>
-    <row r="886" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A886" s="6" t="s">
         <v>2045</v>
       </c>
@@ -37995,7 +38067,7 @@
       <c r="L886" s="6"/>
       <c r="M886" s="6"/>
     </row>
-    <row r="887" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A887" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38026,7 +38098,7 @@
       <c r="L887" s="6"/>
       <c r="M887" s="6"/>
     </row>
-    <row r="888" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A888" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38057,7 +38129,7 @@
       <c r="L888" s="6"/>
       <c r="M888" s="6"/>
     </row>
-    <row r="889" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A889" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38088,7 +38160,7 @@
       <c r="L889" s="6"/>
       <c r="M889" s="6"/>
     </row>
-    <row r="890" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A890" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38119,7 +38191,7 @@
       <c r="L890" s="6"/>
       <c r="M890" s="6"/>
     </row>
-    <row r="891" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A891" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38150,7 +38222,7 @@
       <c r="L891" s="6"/>
       <c r="M891" s="6"/>
     </row>
-    <row r="892" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A892" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38181,7 +38253,7 @@
       <c r="L892" s="6"/>
       <c r="M892" s="6"/>
     </row>
-    <row r="893" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A893" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38212,7 +38284,7 @@
       <c r="L893" s="6"/>
       <c r="M893" s="6"/>
     </row>
-    <row r="894" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A894" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38243,7 +38315,7 @@
       <c r="L894" s="6"/>
       <c r="M894" s="6"/>
     </row>
-    <row r="895" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A895" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38274,7 +38346,7 @@
       <c r="L895" s="6"/>
       <c r="M895" s="6"/>
     </row>
-    <row r="896" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A896" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38305,7 +38377,7 @@
       <c r="L896" s="6"/>
       <c r="M896" s="6"/>
     </row>
-    <row r="897" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A897" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38336,7 +38408,7 @@
       <c r="L897" s="6"/>
       <c r="M897" s="6"/>
     </row>
-    <row r="898" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A898" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38367,7 +38439,7 @@
       <c r="L898" s="6"/>
       <c r="M898" s="6"/>
     </row>
-    <row r="899" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A899" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38398,7 +38470,7 @@
       <c r="L899" s="6"/>
       <c r="M899" s="6"/>
     </row>
-    <row r="900" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A900" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38429,7 +38501,7 @@
       <c r="L900" s="6"/>
       <c r="M900" s="6"/>
     </row>
-    <row r="901" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A901" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38460,7 +38532,7 @@
       <c r="L901" s="6"/>
       <c r="M901" s="6"/>
     </row>
-    <row r="902" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A902" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38491,7 +38563,7 @@
       <c r="L902" s="6"/>
       <c r="M902" s="6"/>
     </row>
-    <row r="903" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A903" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38522,7 +38594,7 @@
       <c r="L903" s="6"/>
       <c r="M903" s="6"/>
     </row>
-    <row r="904" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A904" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38553,7 +38625,7 @@
       <c r="L904" s="6"/>
       <c r="M904" s="6"/>
     </row>
-    <row r="905" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A905" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38584,7 +38656,7 @@
       <c r="L905" s="6"/>
       <c r="M905" s="6"/>
     </row>
-    <row r="906" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A906" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38615,7 +38687,7 @@
       <c r="L906" s="6"/>
       <c r="M906" s="6"/>
     </row>
-    <row r="907" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A907" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38646,7 +38718,7 @@
       <c r="L907" s="6"/>
       <c r="M907" s="6"/>
     </row>
-    <row r="908" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A908" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38677,7 +38749,7 @@
       <c r="L908" s="6"/>
       <c r="M908" s="6"/>
     </row>
-    <row r="909" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A909" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38708,7 +38780,7 @@
       <c r="L909" s="6"/>
       <c r="M909" s="6"/>
     </row>
-    <row r="910" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A910" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38739,7 +38811,7 @@
       <c r="L910" s="6"/>
       <c r="M910" s="6"/>
     </row>
-    <row r="911" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A911" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38770,7 +38842,7 @@
       <c r="L911" s="6"/>
       <c r="M911" s="6"/>
     </row>
-    <row r="912" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A912" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38801,7 +38873,7 @@
       <c r="L912" s="6"/>
       <c r="M912" s="6"/>
     </row>
-    <row r="913" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A913" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38832,7 +38904,7 @@
       <c r="L913" s="6"/>
       <c r="M913" s="6"/>
     </row>
-    <row r="914" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A914" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38863,7 +38935,7 @@
       <c r="L914" s="6"/>
       <c r="M914" s="6"/>
     </row>
-    <row r="915" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A915" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38894,7 +38966,7 @@
       <c r="L915" s="6"/>
       <c r="M915" s="6"/>
     </row>
-    <row r="916" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A916" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38925,7 +38997,7 @@
       <c r="L916" s="6"/>
       <c r="M916" s="6"/>
     </row>
-    <row r="917" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A917" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38956,7 +39028,7 @@
       <c r="L917" s="6"/>
       <c r="M917" s="6"/>
     </row>
-    <row r="918" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A918" s="6" t="s">
         <v>2045</v>
       </c>
@@ -38987,7 +39059,7 @@
       <c r="L918" s="6"/>
       <c r="M918" s="6"/>
     </row>
-    <row r="919" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A919" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39018,7 +39090,7 @@
       <c r="L919" s="6"/>
       <c r="M919" s="6"/>
     </row>
-    <row r="920" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A920" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39049,7 +39121,7 @@
       <c r="L920" s="6"/>
       <c r="M920" s="6"/>
     </row>
-    <row r="921" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A921" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39080,7 +39152,7 @@
       <c r="L921" s="6"/>
       <c r="M921" s="6"/>
     </row>
-    <row r="922" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A922" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39111,7 +39183,7 @@
       <c r="L922" s="6"/>
       <c r="M922" s="6"/>
     </row>
-    <row r="923" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A923" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39142,7 +39214,7 @@
       <c r="L923" s="6"/>
       <c r="M923" s="6"/>
     </row>
-    <row r="924" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A924" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39173,7 +39245,7 @@
       <c r="L924" s="6"/>
       <c r="M924" s="6"/>
     </row>
-    <row r="925" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A925" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39204,7 +39276,7 @@
       <c r="L925" s="6"/>
       <c r="M925" s="6"/>
     </row>
-    <row r="926" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A926" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39235,7 +39307,7 @@
       <c r="L926" s="6"/>
       <c r="M926" s="6"/>
     </row>
-    <row r="927" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A927" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39266,7 +39338,7 @@
       <c r="L927" s="6"/>
       <c r="M927" s="6"/>
     </row>
-    <row r="928" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A928" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39297,7 +39369,7 @@
       <c r="L928" s="6"/>
       <c r="M928" s="6"/>
     </row>
-    <row r="929" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A929" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39328,7 +39400,7 @@
       <c r="L929" s="6"/>
       <c r="M929" s="6"/>
     </row>
-    <row r="930" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A930" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39359,7 +39431,7 @@
       <c r="L930" s="6"/>
       <c r="M930" s="6"/>
     </row>
-    <row r="931" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A931" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39390,7 +39462,7 @@
       <c r="L931" s="6"/>
       <c r="M931" s="6"/>
     </row>
-    <row r="932" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A932" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39421,7 +39493,7 @@
       <c r="L932" s="6"/>
       <c r="M932" s="6"/>
     </row>
-    <row r="933" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A933" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39452,7 +39524,7 @@
       <c r="L933" s="6"/>
       <c r="M933" s="6"/>
     </row>
-    <row r="934" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A934" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39483,7 +39555,7 @@
       <c r="L934" s="6"/>
       <c r="M934" s="6"/>
     </row>
-    <row r="935" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A935" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39514,7 +39586,7 @@
       <c r="L935" s="6"/>
       <c r="M935" s="6"/>
     </row>
-    <row r="936" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A936" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39545,7 +39617,7 @@
       <c r="L936" s="6"/>
       <c r="M936" s="6"/>
     </row>
-    <row r="937" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A937" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39576,7 +39648,7 @@
       <c r="L937" s="6"/>
       <c r="M937" s="6"/>
     </row>
-    <row r="938" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A938" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39607,7 +39679,7 @@
       <c r="L938" s="6"/>
       <c r="M938" s="6"/>
     </row>
-    <row r="939" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A939" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39638,7 +39710,7 @@
       <c r="L939" s="6"/>
       <c r="M939" s="6"/>
     </row>
-    <row r="940" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A940" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39669,7 +39741,7 @@
       <c r="L940" s="6"/>
       <c r="M940" s="6"/>
     </row>
-    <row r="941" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A941" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39700,7 +39772,7 @@
       <c r="L941" s="6"/>
       <c r="M941" s="6"/>
     </row>
-    <row r="942" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A942" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39731,7 +39803,7 @@
       <c r="L942" s="6"/>
       <c r="M942" s="6"/>
     </row>
-    <row r="943" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A943" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39762,7 +39834,7 @@
       <c r="L943" s="6"/>
       <c r="M943" s="6"/>
     </row>
-    <row r="944" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A944" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39793,7 +39865,7 @@
       <c r="L944" s="6"/>
       <c r="M944" s="6"/>
     </row>
-    <row r="945" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A945" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39824,7 +39896,7 @@
       <c r="L945" s="6"/>
       <c r="M945" s="6"/>
     </row>
-    <row r="946" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A946" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39855,7 +39927,7 @@
       <c r="L946" s="6"/>
       <c r="M946" s="6"/>
     </row>
-    <row r="947" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A947" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39886,7 +39958,7 @@
       <c r="L947" s="6"/>
       <c r="M947" s="6"/>
     </row>
-    <row r="948" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A948" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39917,7 +39989,7 @@
       <c r="L948" s="6"/>
       <c r="M948" s="6"/>
     </row>
-    <row r="949" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A949" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39948,7 +40020,7 @@
       <c r="L949" s="6"/>
       <c r="M949" s="6"/>
     </row>
-    <row r="950" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A950" s="6" t="s">
         <v>2045</v>
       </c>
@@ -39979,7 +40051,7 @@
       <c r="L950" s="6"/>
       <c r="M950" s="6"/>
     </row>
-    <row r="951" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A951" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40010,7 +40082,7 @@
       <c r="L951" s="6"/>
       <c r="M951" s="6"/>
     </row>
-    <row r="952" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A952" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40041,7 +40113,7 @@
       <c r="L952" s="6"/>
       <c r="M952" s="6"/>
     </row>
-    <row r="953" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A953" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40072,7 +40144,7 @@
       <c r="L953" s="6"/>
       <c r="M953" s="6"/>
     </row>
-    <row r="954" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A954" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40103,7 +40175,7 @@
       <c r="L954" s="6"/>
       <c r="M954" s="6"/>
     </row>
-    <row r="955" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A955" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40134,7 +40206,7 @@
       <c r="L955" s="6"/>
       <c r="M955" s="6"/>
     </row>
-    <row r="956" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A956" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40165,7 +40237,7 @@
       <c r="L956" s="6"/>
       <c r="M956" s="6"/>
     </row>
-    <row r="957" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A957" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40196,7 +40268,7 @@
       <c r="L957" s="6"/>
       <c r="M957" s="6"/>
     </row>
-    <row r="958" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A958" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40227,7 +40299,7 @@
       <c r="L958" s="6"/>
       <c r="M958" s="6"/>
     </row>
-    <row r="959" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A959" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40258,7 +40330,7 @@
       <c r="L959" s="6"/>
       <c r="M959" s="6"/>
     </row>
-    <row r="960" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A960" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40289,7 +40361,7 @@
       <c r="L960" s="6"/>
       <c r="M960" s="6"/>
     </row>
-    <row r="961" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A961" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40320,7 +40392,7 @@
       <c r="L961" s="6"/>
       <c r="M961" s="6"/>
     </row>
-    <row r="962" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A962" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40351,7 +40423,7 @@
       <c r="L962" s="6"/>
       <c r="M962" s="6"/>
     </row>
-    <row r="963" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A963" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40382,7 +40454,7 @@
       <c r="L963" s="6"/>
       <c r="M963" s="6"/>
     </row>
-    <row r="964" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A964" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40413,7 +40485,7 @@
       <c r="L964" s="6"/>
       <c r="M964" s="6"/>
     </row>
-    <row r="965" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A965" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40444,7 +40516,7 @@
       <c r="L965" s="6"/>
       <c r="M965" s="6"/>
     </row>
-    <row r="966" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A966" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40475,7 +40547,7 @@
       <c r="L966" s="6"/>
       <c r="M966" s="6"/>
     </row>
-    <row r="967" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A967" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40506,7 +40578,7 @@
       <c r="L967" s="6"/>
       <c r="M967" s="6"/>
     </row>
-    <row r="968" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A968" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40537,7 +40609,7 @@
       <c r="L968" s="6"/>
       <c r="M968" s="6"/>
     </row>
-    <row r="969" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A969" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40568,7 +40640,7 @@
       <c r="L969" s="6"/>
       <c r="M969" s="6"/>
     </row>
-    <row r="970" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A970" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40599,7 +40671,7 @@
       <c r="L970" s="6"/>
       <c r="M970" s="6"/>
     </row>
-    <row r="971" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A971" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40630,7 +40702,7 @@
       <c r="L971" s="6"/>
       <c r="M971" s="6"/>
     </row>
-    <row r="972" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A972" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40661,7 +40733,7 @@
       <c r="L972" s="6"/>
       <c r="M972" s="6"/>
     </row>
-    <row r="973" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A973" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40692,7 +40764,7 @@
       <c r="L973" s="6"/>
       <c r="M973" s="6"/>
     </row>
-    <row r="974" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A974" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40723,7 +40795,7 @@
       <c r="L974" s="6"/>
       <c r="M974" s="6"/>
     </row>
-    <row r="975" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A975" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40754,7 +40826,7 @@
       <c r="L975" s="6"/>
       <c r="M975" s="6"/>
     </row>
-    <row r="976" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A976" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40785,7 +40857,7 @@
       <c r="L976" s="6"/>
       <c r="M976" s="6"/>
     </row>
-    <row r="977" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A977" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40816,7 +40888,7 @@
       <c r="L977" s="6"/>
       <c r="M977" s="6"/>
     </row>
-    <row r="978" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A978" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40847,7 +40919,7 @@
       <c r="L978" s="6"/>
       <c r="M978" s="6"/>
     </row>
-    <row r="979" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A979" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40878,7 +40950,7 @@
       <c r="L979" s="6"/>
       <c r="M979" s="6"/>
     </row>
-    <row r="980" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A980" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40909,7 +40981,7 @@
       <c r="L980" s="6"/>
       <c r="M980" s="6"/>
     </row>
-    <row r="981" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A981" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40940,7 +41012,7 @@
       <c r="L981" s="6"/>
       <c r="M981" s="6"/>
     </row>
-    <row r="982" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A982" s="6" t="s">
         <v>2045</v>
       </c>
@@ -40971,7 +41043,7 @@
       <c r="L982" s="6"/>
       <c r="M982" s="6"/>
     </row>
-    <row r="983" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A983" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41002,7 +41074,7 @@
       <c r="L983" s="6"/>
       <c r="M983" s="6"/>
     </row>
-    <row r="984" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A984" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41033,7 +41105,7 @@
       <c r="L984" s="6"/>
       <c r="M984" s="6"/>
     </row>
-    <row r="985" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A985" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41064,7 +41136,7 @@
       <c r="L985" s="6"/>
       <c r="M985" s="6"/>
     </row>
-    <row r="986" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A986" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41095,7 +41167,7 @@
       <c r="L986" s="6"/>
       <c r="M986" s="6"/>
     </row>
-    <row r="987" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A987" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41126,7 +41198,7 @@
       <c r="L987" s="6"/>
       <c r="M987" s="6"/>
     </row>
-    <row r="988" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A988" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41157,7 +41229,7 @@
       <c r="L988" s="6"/>
       <c r="M988" s="6"/>
     </row>
-    <row r="989" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A989" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41188,7 +41260,7 @@
       <c r="L989" s="6"/>
       <c r="M989" s="6"/>
     </row>
-    <row r="990" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A990" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41219,7 +41291,7 @@
       <c r="L990" s="6"/>
       <c r="M990" s="6"/>
     </row>
-    <row r="991" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A991" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41250,7 +41322,7 @@
       <c r="L991" s="6"/>
       <c r="M991" s="6"/>
     </row>
-    <row r="992" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A992" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41281,7 +41353,7 @@
       <c r="L992" s="6"/>
       <c r="M992" s="6"/>
     </row>
-    <row r="993" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A993" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41312,7 +41384,7 @@
       <c r="L993" s="6"/>
       <c r="M993" s="6"/>
     </row>
-    <row r="994" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A994" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41343,7 +41415,7 @@
       <c r="L994" s="6"/>
       <c r="M994" s="6"/>
     </row>
-    <row r="995" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A995" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41374,7 +41446,7 @@
       <c r="L995" s="6"/>
       <c r="M995" s="6"/>
     </row>
-    <row r="996" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A996" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41405,7 +41477,7 @@
       <c r="L996" s="6"/>
       <c r="M996" s="6"/>
     </row>
-    <row r="997" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A997" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41436,7 +41508,7 @@
       <c r="L997" s="6"/>
       <c r="M997" s="6"/>
     </row>
-    <row r="998" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A998" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41467,7 +41539,7 @@
       <c r="L998" s="6"/>
       <c r="M998" s="6"/>
     </row>
-    <row r="999" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A999" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41498,7 +41570,7 @@
       <c r="L999" s="6"/>
       <c r="M999" s="6"/>
     </row>
-    <row r="1000" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1000" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41529,7 +41601,7 @@
       <c r="L1000" s="6"/>
       <c r="M1000" s="6"/>
     </row>
-    <row r="1001" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1001" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41560,7 +41632,7 @@
       <c r="L1001" s="6"/>
       <c r="M1001" s="6"/>
     </row>
-    <row r="1002" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1002" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41591,7 +41663,7 @@
       <c r="L1002" s="6"/>
       <c r="M1002" s="6"/>
     </row>
-    <row r="1003" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1003" s="6" t="s">
         <v>2045</v>
       </c>
@@ -41623,13 +41695,7 @@
       <c r="M1003" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M1003">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Músculo glúteo máximo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:M1003"/>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
